--- a/Tables/количество потребительских корзин за зарплату(группы).xlsx
+++ b/Tables/количество потребительских корзин за зарплату(группы).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CG25"/>
+  <dimension ref="A1:CH26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,67 +436,67 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>Ямало-Ненецкий авт.округ</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Ямало-Ненецкий авт.округ</t>
+          <t>Сахалинская область</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Сахалинская область</t>
+          <t>Тюменская область</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Тюменская область</t>
+          <t>Чукотский авт.округ</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Чукотский авт.округ</t>
+          <t>г.Москва</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>г.Москва</t>
+          <t>Магаданская область</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Магаданская область</t>
+          <t>Республика Саха (Якутия)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Республика Саха (Якутия)</t>
+          <t>г.Санкт-Петербург</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>г.Санкт-Петербург</t>
+          <t>Мурманская область</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Мурманская область</t>
+          <t>Республика Коми</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Республика Коми</t>
+          <t>Московская область</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Московская область</t>
+          <t>Тюменская область без авт.округов</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Тюменская область без авт.округов</t>
+          <t>Unnamed: 13</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
@@ -716,192 +716,193 @@
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 57</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
           <t>Краснодарский край</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>Еврейская авт.область</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>Тверская область</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>Ростовская область</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>Республика Ингушетия</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>Чувашская Республика</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>Республика Мордовия</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>Ульяновская область</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>Орловская область</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>Республика Марий Эл</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>Костромская область</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>Владимирская область</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>Кировская область</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>Тамбовская область</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>Смоленская область</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>Ставропольский край</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>Республика Северная Осетия - Алания</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>Курганская область</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>Республика Адыгея</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>Брянская область</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>Алтайский край</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>Псковская область</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>Республика Алтай</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>Республика Калмыкия</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>Кабардино-Балкарская Республика</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>Республика Дагестан</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>Чеченская Республика</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>Ивановская область</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>Карачаево-Черкесская Республика</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1 квартал 2015</t>
-        </is>
+      <c r="A2" t="n">
+        <v>4.332331267444015</v>
       </c>
       <c r="B2" t="n">
-        <v>4.332331267444015</v>
+        <v>3.404264154525177</v>
       </c>
       <c r="C2" t="n">
-        <v>3.404264154525177</v>
+        <v>3.666889921442226</v>
       </c>
       <c r="D2" t="n">
-        <v>3.666889921442226</v>
+        <v>3.733960819190197</v>
       </c>
       <c r="E2" t="n">
-        <v>3.733960819190197</v>
+        <v>3.239139283097713</v>
       </c>
       <c r="F2" t="n">
-        <v>3.239139283097713</v>
+        <v>3.212075754734671</v>
       </c>
       <c r="G2" t="n">
-        <v>3.212075754734671</v>
+        <v>3.174408997457296</v>
       </c>
       <c r="H2" t="n">
-        <v>3.174408997457296</v>
+        <v>2.921429217548621</v>
       </c>
       <c r="I2" t="n">
-        <v>2.921429217548621</v>
+        <v>2.722218643303485</v>
       </c>
       <c r="J2" t="n">
-        <v>2.722218643303485</v>
+        <v>2.738745186124702</v>
       </c>
       <c r="K2" t="n">
-        <v>2.738745186124702</v>
+        <v>2.742936842858165</v>
       </c>
       <c r="L2" t="n">
-        <v>2.742936842858165</v>
-      </c>
-      <c r="M2" t="n">
         <v>2.715311492799152</v>
       </c>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
         <v>2.608371746519532</v>
       </c>
@@ -1031,136 +1032,133 @@
       <c r="BD2" t="n">
         <v>1.911100660561804</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2" t="n">
         <v>1.895160219317384</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BG2" t="n">
         <v>1.89844946560219</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BH2" t="n">
         <v>1.89281596786143</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BI2" t="n">
         <v>1.779055416055683</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BJ2" t="n">
         <v>1.998751435393617</v>
       </c>
-      <c r="BJ2" t="n">
+      <c r="BK2" t="n">
         <v>1.817863287409091</v>
       </c>
-      <c r="BK2" t="n">
+      <c r="BL2" t="n">
         <v>1.797574500698796</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="BM2" t="n">
         <v>1.829029836414742</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BN2" t="n">
         <v>1.795112075710225</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="BO2" t="n">
         <v>1.748765775513512</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BP2" t="n">
         <v>1.754982425007678</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BQ2" t="n">
         <v>1.740622185485978</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="BR2" t="n">
         <v>1.71260275907333</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="BS2" t="n">
         <v>1.778634312995489</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="BT2" t="n">
         <v>1.708374407639227</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="BU2" t="n">
         <v>1.762360737649401</v>
       </c>
-      <c r="BU2" t="n">
+      <c r="BV2" t="n">
         <v>1.761889129625982</v>
       </c>
-      <c r="BV2" t="n">
+      <c r="BW2" t="n">
         <v>1.750862973366273</v>
       </c>
-      <c r="BW2" t="n">
+      <c r="BX2" t="n">
         <v>1.729592629452794</v>
       </c>
-      <c r="BX2" t="n">
+      <c r="BY2" t="n">
         <v>1.723145834395771</v>
       </c>
-      <c r="BY2" t="n">
+      <c r="BZ2" t="n">
         <v>1.686961047351561</v>
       </c>
-      <c r="BZ2" t="n">
+      <c r="CA2" t="n">
         <v>1.644173157879952</v>
       </c>
-      <c r="CA2" t="n">
+      <c r="CB2" t="n">
         <v>1.547312266274392</v>
       </c>
-      <c r="CB2" t="n">
+      <c r="CC2" t="n">
         <v>1.627997635305911</v>
       </c>
-      <c r="CC2" t="n">
+      <c r="CD2" t="n">
         <v>1.637016470784711</v>
       </c>
-      <c r="CD2" t="n">
+      <c r="CE2" t="n">
         <v>1.673857004761734</v>
       </c>
-      <c r="CE2" t="n">
+      <c r="CF2" t="n">
         <v>1.813222550932628</v>
       </c>
-      <c r="CF2" t="n">
+      <c r="CG2" t="n">
         <v>1.664578676295987</v>
       </c>
-      <c r="CG2" t="n">
+      <c r="CH2" t="n">
         <v>1.587993467822526</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2 квартал 2015</t>
-        </is>
+      <c r="A3" t="n">
+        <v>4.472988576485966</v>
       </c>
       <c r="B3" t="n">
-        <v>4.472988576485966</v>
+        <v>3.530472157060315</v>
       </c>
       <c r="C3" t="n">
-        <v>3.530472157060315</v>
+        <v>3.709168552216452</v>
       </c>
       <c r="D3" t="n">
-        <v>3.709168552216452</v>
+        <v>3.731005265995076</v>
       </c>
       <c r="E3" t="n">
-        <v>3.731005265995076</v>
+        <v>3.224188049268651</v>
       </c>
       <c r="F3" t="n">
-        <v>3.224188049268651</v>
+        <v>3.160326392696347</v>
       </c>
       <c r="G3" t="n">
-        <v>3.160326392696347</v>
+        <v>3.176466401954158</v>
       </c>
       <c r="H3" t="n">
-        <v>3.176466401954158</v>
+        <v>2.957224038888532</v>
       </c>
       <c r="I3" t="n">
-        <v>2.957224038888532</v>
+        <v>2.761678260444496</v>
       </c>
       <c r="J3" t="n">
-        <v>2.761678260444496</v>
+        <v>2.754763218691834</v>
       </c>
       <c r="K3" t="n">
-        <v>2.754763218691834</v>
+        <v>2.714014293061782</v>
       </c>
       <c r="L3" t="n">
-        <v>2.714014293061782</v>
-      </c>
-      <c r="M3" t="n">
         <v>2.723087007263483</v>
       </c>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
         <v>2.619866076419165</v>
       </c>
@@ -1290,136 +1288,133 @@
       <c r="BD3" t="n">
         <v>1.91405112173063</v>
       </c>
-      <c r="BE3" t="n">
+      <c r="BE3" t="inlineStr"/>
+      <c r="BF3" t="n">
         <v>1.887911500400976</v>
       </c>
-      <c r="BF3" t="n">
+      <c r="BG3" t="n">
         <v>1.895032753003818</v>
       </c>
-      <c r="BG3" t="n">
+      <c r="BH3" t="n">
         <v>1.838328655222823</v>
       </c>
-      <c r="BH3" t="n">
+      <c r="BI3" t="n">
         <v>1.764764232646511</v>
       </c>
-      <c r="BI3" t="n">
+      <c r="BJ3" t="n">
         <v>1.930941192801724</v>
       </c>
-      <c r="BJ3" t="n">
+      <c r="BK3" t="n">
         <v>1.79515696131204</v>
       </c>
-      <c r="BK3" t="n">
+      <c r="BL3" t="n">
         <v>1.835185163155328</v>
       </c>
-      <c r="BL3" t="n">
+      <c r="BM3" t="n">
         <v>1.843831626770577</v>
       </c>
-      <c r="BM3" t="n">
+      <c r="BN3" t="n">
         <v>1.777962275143835</v>
       </c>
-      <c r="BN3" t="n">
+      <c r="BO3" t="n">
         <v>1.758997842354129</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="BP3" t="n">
         <v>1.75572411657918</v>
       </c>
-      <c r="BP3" t="n">
+      <c r="BQ3" t="n">
         <v>1.758035097843223</v>
       </c>
-      <c r="BQ3" t="n">
+      <c r="BR3" t="n">
         <v>1.720034890036042</v>
       </c>
-      <c r="BR3" t="n">
+      <c r="BS3" t="n">
         <v>1.752419428991771</v>
       </c>
-      <c r="BS3" t="n">
+      <c r="BT3" t="n">
         <v>1.714672529871383</v>
       </c>
-      <c r="BT3" t="n">
+      <c r="BU3" t="n">
         <v>1.744342701333277</v>
       </c>
-      <c r="BU3" t="n">
+      <c r="BV3" t="n">
         <v>1.74254740990538</v>
       </c>
-      <c r="BV3" t="n">
+      <c r="BW3" t="n">
         <v>1.716122295639875</v>
       </c>
-      <c r="BW3" t="n">
+      <c r="BX3" t="n">
         <v>1.734466212292551</v>
       </c>
-      <c r="BX3" t="n">
+      <c r="BY3" t="n">
         <v>1.719112557380166</v>
       </c>
-      <c r="BY3" t="n">
+      <c r="BZ3" t="n">
         <v>1.673680485128227</v>
       </c>
-      <c r="BZ3" t="n">
+      <c r="CA3" t="n">
         <v>1.625681906912452</v>
       </c>
-      <c r="CA3" t="n">
+      <c r="CB3" t="n">
         <v>1.529034571494864</v>
       </c>
-      <c r="CB3" t="n">
+      <c r="CC3" t="n">
         <v>1.598034693785718</v>
       </c>
-      <c r="CC3" t="n">
+      <c r="CD3" t="n">
         <v>1.616363537058277</v>
       </c>
-      <c r="CD3" t="n">
+      <c r="CE3" t="n">
         <v>1.593109979874512</v>
       </c>
-      <c r="CE3" t="n">
+      <c r="CF3" t="n">
         <v>1.805438210916085</v>
       </c>
-      <c r="CF3" t="n">
+      <c r="CG3" t="n">
         <v>1.6603116867675</v>
       </c>
-      <c r="CG3" t="n">
+      <c r="CH3" t="n">
         <v>1.552071544165089</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3 квартал 2015</t>
-        </is>
+      <c r="A4" t="n">
+        <v>4.581163068570699</v>
       </c>
       <c r="B4" t="n">
-        <v>4.581163068570699</v>
+        <v>3.557081344820906</v>
       </c>
       <c r="C4" t="n">
-        <v>3.557081344820906</v>
+        <v>3.77910435743394</v>
       </c>
       <c r="D4" t="n">
-        <v>3.77910435743394</v>
+        <v>3.803440991986069</v>
       </c>
       <c r="E4" t="n">
-        <v>3.803440991986069</v>
+        <v>3.271051202963288</v>
       </c>
       <c r="F4" t="n">
-        <v>3.271051202963288</v>
+        <v>3.223131011747032</v>
       </c>
       <c r="G4" t="n">
-        <v>3.223131011747032</v>
+        <v>3.22141185623596</v>
       </c>
       <c r="H4" t="n">
-        <v>3.22141185623596</v>
+        <v>2.986207317588606</v>
       </c>
       <c r="I4" t="n">
-        <v>2.986207317588606</v>
+        <v>2.806522741353738</v>
       </c>
       <c r="J4" t="n">
-        <v>2.806522741353738</v>
+        <v>2.789451466086584</v>
       </c>
       <c r="K4" t="n">
-        <v>2.789451466086584</v>
+        <v>2.720512985995225</v>
       </c>
       <c r="L4" t="n">
-        <v>2.720512985995225</v>
-      </c>
-      <c r="M4" t="n">
         <v>2.750471091242253</v>
       </c>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
         <v>2.656272033755366</v>
       </c>
@@ -1549,136 +1544,133 @@
       <c r="BD4" t="n">
         <v>1.944448385348539</v>
       </c>
-      <c r="BE4" t="n">
+      <c r="BE4" t="inlineStr"/>
+      <c r="BF4" t="n">
         <v>1.906138208101956</v>
       </c>
-      <c r="BF4" t="n">
+      <c r="BG4" t="n">
         <v>1.943459382784389</v>
       </c>
-      <c r="BG4" t="n">
+      <c r="BH4" t="n">
         <v>1.852361523747508</v>
       </c>
-      <c r="BH4" t="n">
+      <c r="BI4" t="n">
         <v>1.816880824107213</v>
       </c>
-      <c r="BI4" t="n">
+      <c r="BJ4" t="n">
         <v>1.962590141996877</v>
       </c>
-      <c r="BJ4" t="n">
+      <c r="BK4" t="n">
         <v>1.83022349805208</v>
       </c>
-      <c r="BK4" t="n">
+      <c r="BL4" t="n">
         <v>1.886986441410654</v>
       </c>
-      <c r="BL4" t="n">
+      <c r="BM4" t="n">
         <v>1.886339002479897</v>
       </c>
-      <c r="BM4" t="n">
+      <c r="BN4" t="n">
         <v>1.825587091197234</v>
       </c>
-      <c r="BN4" t="n">
+      <c r="BO4" t="n">
         <v>1.806687814805972</v>
       </c>
-      <c r="BO4" t="n">
+      <c r="BP4" t="n">
         <v>1.767742149638186</v>
       </c>
-      <c r="BP4" t="n">
+      <c r="BQ4" t="n">
         <v>1.791961849737488</v>
       </c>
-      <c r="BQ4" t="n">
+      <c r="BR4" t="n">
         <v>1.754835494329585</v>
       </c>
-      <c r="BR4" t="n">
+      <c r="BS4" t="n">
         <v>1.782608450926201</v>
       </c>
-      <c r="BS4" t="n">
+      <c r="BT4" t="n">
         <v>1.747768849729573</v>
       </c>
-      <c r="BT4" t="n">
+      <c r="BU4" t="n">
         <v>1.802656899539641</v>
       </c>
-      <c r="BU4" t="n">
+      <c r="BV4" t="n">
         <v>1.769588745200708</v>
       </c>
-      <c r="BV4" t="n">
+      <c r="BW4" t="n">
         <v>1.720304853935366</v>
       </c>
-      <c r="BW4" t="n">
+      <c r="BX4" t="n">
         <v>1.773011439763745</v>
       </c>
-      <c r="BX4" t="n">
+      <c r="BY4" t="n">
         <v>1.750799107412099</v>
       </c>
-      <c r="BY4" t="n">
+      <c r="BZ4" t="n">
         <v>1.677159129596824</v>
       </c>
-      <c r="BZ4" t="n">
+      <c r="CA4" t="n">
         <v>1.642401498990465</v>
       </c>
-      <c r="CA4" t="n">
+      <c r="CB4" t="n">
         <v>1.545476553721348</v>
       </c>
-      <c r="CB4" t="n">
+      <c r="CC4" t="n">
         <v>1.640914410289467</v>
       </c>
-      <c r="CC4" t="n">
+      <c r="CD4" t="n">
         <v>1.657669558788353</v>
       </c>
-      <c r="CD4" t="n">
+      <c r="CE4" t="n">
         <v>1.62344769767293</v>
       </c>
-      <c r="CE4" t="n">
+      <c r="CF4" t="n">
         <v>1.781025374787919</v>
       </c>
-      <c r="CF4" t="n">
+      <c r="CG4" t="n">
         <v>1.673317513659816</v>
       </c>
-      <c r="CG4" t="n">
+      <c r="CH4" t="n">
         <v>1.581553714695715</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4 квартал 2015</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4.412597486463665</v>
       </c>
       <c r="B5" t="n">
-        <v>4.412597486463665</v>
+        <v>3.525085110899699</v>
       </c>
       <c r="C5" t="n">
-        <v>3.525085110899699</v>
+        <v>3.685453216212813</v>
       </c>
       <c r="D5" t="n">
-        <v>3.685453216212813</v>
+        <v>3.693897309686692</v>
       </c>
       <c r="E5" t="n">
-        <v>3.693897309686692</v>
+        <v>3.232960717421558</v>
       </c>
       <c r="F5" t="n">
-        <v>3.232960717421558</v>
+        <v>3.21038694797984</v>
       </c>
       <c r="G5" t="n">
-        <v>3.21038694797984</v>
+        <v>3.108505515022576</v>
       </c>
       <c r="H5" t="n">
-        <v>3.108505515022576</v>
+        <v>2.946411580965111</v>
       </c>
       <c r="I5" t="n">
-        <v>2.946411580965111</v>
+        <v>2.742149162811236</v>
       </c>
       <c r="J5" t="n">
-        <v>2.742149162811236</v>
+        <v>2.7416152339948</v>
       </c>
       <c r="K5" t="n">
-        <v>2.7416152339948</v>
+        <v>2.686591243214503</v>
       </c>
       <c r="L5" t="n">
-        <v>2.686591243214503</v>
-      </c>
-      <c r="M5" t="n">
         <v>2.708919946562532</v>
       </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
         <v>2.61190021078005</v>
       </c>
@@ -1808,136 +1800,133 @@
       <c r="BD5" t="n">
         <v>1.933046416104749</v>
       </c>
-      <c r="BE5" t="n">
+      <c r="BE5" t="inlineStr"/>
+      <c r="BF5" t="n">
         <v>1.875901392719018</v>
       </c>
-      <c r="BF5" t="n">
+      <c r="BG5" t="n">
         <v>1.927225448853381</v>
       </c>
-      <c r="BG5" t="n">
+      <c r="BH5" t="n">
         <v>1.837861478449704</v>
       </c>
-      <c r="BH5" t="n">
+      <c r="BI5" t="n">
         <v>1.789382477587411</v>
       </c>
-      <c r="BI5" t="n">
+      <c r="BJ5" t="n">
         <v>1.885326580622173</v>
       </c>
-      <c r="BJ5" t="n">
+      <c r="BK5" t="n">
         <v>1.800858265197606</v>
       </c>
-      <c r="BK5" t="n">
+      <c r="BL5" t="n">
         <v>1.876213081233543</v>
       </c>
-      <c r="BL5" t="n">
+      <c r="BM5" t="n">
         <v>1.868936866373648</v>
       </c>
-      <c r="BM5" t="n">
+      <c r="BN5" t="n">
         <v>1.82320711417097</v>
       </c>
-      <c r="BN5" t="n">
+      <c r="BO5" t="n">
         <v>1.801863647617548</v>
       </c>
-      <c r="BO5" t="n">
+      <c r="BP5" t="n">
         <v>1.766008554810632</v>
       </c>
-      <c r="BP5" t="n">
+      <c r="BQ5" t="n">
         <v>1.7734983490031</v>
       </c>
-      <c r="BQ5" t="n">
+      <c r="BR5" t="n">
         <v>1.736503025542172</v>
       </c>
-      <c r="BR5" t="n">
+      <c r="BS5" t="n">
         <v>1.75819194046849</v>
       </c>
-      <c r="BS5" t="n">
+      <c r="BT5" t="n">
         <v>1.728828702344637</v>
       </c>
-      <c r="BT5" t="n">
+      <c r="BU5" t="n">
         <v>1.797346892962115</v>
       </c>
-      <c r="BU5" t="n">
+      <c r="BV5" t="n">
         <v>1.698172435916852</v>
       </c>
-      <c r="BV5" t="n">
+      <c r="BW5" t="n">
         <v>1.710915945437566</v>
       </c>
-      <c r="BW5" t="n">
+      <c r="BX5" t="n">
         <v>1.726783576422389</v>
       </c>
-      <c r="BX5" t="n">
+      <c r="BY5" t="n">
         <v>1.719668867571274</v>
       </c>
-      <c r="BY5" t="n">
+      <c r="BZ5" t="n">
         <v>1.66770329877259</v>
       </c>
-      <c r="BZ5" t="n">
+      <c r="CA5" t="n">
         <v>1.621433863206979</v>
       </c>
-      <c r="CA5" t="n">
+      <c r="CB5" t="n">
         <v>1.511785780776758</v>
       </c>
-      <c r="CB5" t="n">
+      <c r="CC5" t="n">
         <v>1.605817271425291</v>
       </c>
-      <c r="CC5" t="n">
+      <c r="CD5" t="n">
         <v>1.629720611661474</v>
       </c>
-      <c r="CD5" t="n">
+      <c r="CE5" t="n">
         <v>1.578217973927817</v>
       </c>
-      <c r="CE5" t="n">
+      <c r="CF5" t="n">
         <v>1.711666003189893</v>
       </c>
-      <c r="CF5" t="n">
+      <c r="CG5" t="n">
         <v>1.637348302170218</v>
       </c>
-      <c r="CG5" t="n">
+      <c r="CH5" t="n">
         <v>1.552259745465477</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>1 квартал 2016</t>
-        </is>
+      <c r="A6" t="n">
+        <v>4.399824737459541</v>
       </c>
       <c r="B6" t="n">
-        <v>4.399824737459541</v>
+        <v>3.802136564253944</v>
       </c>
       <c r="C6" t="n">
-        <v>3.802136564253944</v>
+        <v>3.565320634261542</v>
       </c>
       <c r="D6" t="n">
-        <v>3.565320634261542</v>
+        <v>3.587102712702023</v>
       </c>
       <c r="E6" t="n">
-        <v>3.587102712702023</v>
+        <v>3.235395765356428</v>
       </c>
       <c r="F6" t="n">
-        <v>3.235395765356428</v>
+        <v>2.990675803307678</v>
       </c>
       <c r="G6" t="n">
-        <v>2.990675803307678</v>
+        <v>2.987576420685069</v>
       </c>
       <c r="H6" t="n">
-        <v>2.987576420685069</v>
+        <v>2.963870837401933</v>
       </c>
       <c r="I6" t="n">
-        <v>2.963870837401933</v>
+        <v>2.782350674607629</v>
       </c>
       <c r="J6" t="n">
-        <v>2.782350674607629</v>
+        <v>2.794553714736527</v>
       </c>
       <c r="K6" t="n">
-        <v>2.794553714736527</v>
+        <v>2.642406272956021</v>
       </c>
       <c r="L6" t="n">
-        <v>2.642406272956021</v>
-      </c>
-      <c r="M6" t="n">
         <v>2.578302042531478</v>
       </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
         <v>2.509528180078714</v>
       </c>
@@ -2067,136 +2056,133 @@
       <c r="BD6" t="n">
         <v>1.869410615006857</v>
       </c>
-      <c r="BE6" t="n">
+      <c r="BE6" t="inlineStr"/>
+      <c r="BF6" t="n">
         <v>1.783072556175455</v>
       </c>
-      <c r="BF6" t="n">
+      <c r="BG6" t="n">
         <v>1.8632698051262</v>
       </c>
-      <c r="BG6" t="n">
+      <c r="BH6" t="n">
         <v>1.783515921868403</v>
       </c>
-      <c r="BH6" t="n">
+      <c r="BI6" t="n">
         <v>1.738000036515674</v>
       </c>
-      <c r="BI6" t="n">
+      <c r="BJ6" t="n">
         <v>1.795807533985956</v>
       </c>
-      <c r="BJ6" t="n">
+      <c r="BK6" t="n">
         <v>1.704149214493721</v>
       </c>
-      <c r="BK6" t="n">
+      <c r="BL6" t="n">
         <v>1.705350273439937</v>
       </c>
-      <c r="BL6" t="n">
+      <c r="BM6" t="n">
         <v>1.807427542059382</v>
       </c>
-      <c r="BM6" t="n">
+      <c r="BN6" t="n">
         <v>1.700889033041425</v>
       </c>
-      <c r="BN6" t="n">
+      <c r="BO6" t="n">
         <v>1.666680422922324</v>
       </c>
-      <c r="BO6" t="n">
+      <c r="BP6" t="n">
         <v>1.72367251272933</v>
       </c>
-      <c r="BP6" t="n">
+      <c r="BQ6" t="n">
         <v>1.715226726432894</v>
       </c>
-      <c r="BQ6" t="n">
+      <c r="BR6" t="n">
         <v>1.694711868394737</v>
       </c>
-      <c r="BR6" t="n">
+      <c r="BS6" t="n">
         <v>1.666172594851636</v>
       </c>
-      <c r="BS6" t="n">
+      <c r="BT6" t="n">
         <v>1.696360557047029</v>
       </c>
-      <c r="BT6" t="n">
+      <c r="BU6" t="n">
         <v>1.733650059097332</v>
       </c>
-      <c r="BU6" t="n">
+      <c r="BV6" t="n">
         <v>1.676210307131702</v>
       </c>
-      <c r="BV6" t="n">
+      <c r="BW6" t="n">
         <v>1.619289476616197</v>
       </c>
-      <c r="BW6" t="n">
+      <c r="BX6" t="n">
         <v>1.662263035726169</v>
       </c>
-      <c r="BX6" t="n">
+      <c r="BY6" t="n">
         <v>1.647109986558077</v>
       </c>
-      <c r="BY6" t="n">
+      <c r="BZ6" t="n">
         <v>1.596673942417628</v>
       </c>
-      <c r="BZ6" t="n">
+      <c r="CA6" t="n">
         <v>1.574631233024715</v>
       </c>
-      <c r="CA6" t="n">
+      <c r="CB6" t="n">
         <v>1.487817800162295</v>
       </c>
-      <c r="CB6" t="n">
+      <c r="CC6" t="n">
         <v>1.531398340978471</v>
       </c>
-      <c r="CC6" t="n">
+      <c r="CD6" t="n">
         <v>1.571807034955963</v>
       </c>
-      <c r="CD6" t="n">
+      <c r="CE6" t="n">
         <v>1.528668775959056</v>
       </c>
-      <c r="CE6" t="n">
+      <c r="CF6" t="n">
         <v>1.600511307475642</v>
       </c>
-      <c r="CF6" t="n">
+      <c r="CG6" t="n">
         <v>1.543370848202031</v>
       </c>
-      <c r="CG6" t="n">
+      <c r="CH6" t="n">
         <v>1.513275845731072</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2 квартал 2016</t>
-        </is>
+      <c r="A7" t="n">
+        <v>4.653219960606517</v>
       </c>
       <c r="B7" t="n">
-        <v>4.653219960606517</v>
+        <v>3.687597404916823</v>
       </c>
       <c r="C7" t="n">
-        <v>3.687597404916823</v>
+        <v>3.73290916909306</v>
       </c>
       <c r="D7" t="n">
-        <v>3.73290916909306</v>
+        <v>3.615569537127772</v>
       </c>
       <c r="E7" t="n">
-        <v>3.615569537127772</v>
+        <v>3.378367799052228</v>
       </c>
       <c r="F7" t="n">
-        <v>3.378367799052228</v>
+        <v>3.062712881202993</v>
       </c>
       <c r="G7" t="n">
-        <v>3.062712881202993</v>
+        <v>3.1476732748842</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1476732748842</v>
+        <v>3.042346503616566</v>
       </c>
       <c r="I7" t="n">
-        <v>3.042346503616566</v>
+        <v>2.838824047256786</v>
       </c>
       <c r="J7" t="n">
-        <v>2.838824047256786</v>
+        <v>2.833708150660965</v>
       </c>
       <c r="K7" t="n">
-        <v>2.833708150660965</v>
+        <v>2.683749937242009</v>
       </c>
       <c r="L7" t="n">
-        <v>2.683749937242009</v>
-      </c>
-      <c r="M7" t="n">
         <v>2.684188500862967</v>
       </c>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
         <v>2.534416852928602</v>
       </c>
@@ -2326,136 +2312,133 @@
       <c r="BD7" t="n">
         <v>1.917872318557167</v>
       </c>
-      <c r="BE7" t="n">
+      <c r="BE7" t="inlineStr"/>
+      <c r="BF7" t="n">
         <v>1.826688552103169</v>
       </c>
-      <c r="BF7" t="n">
+      <c r="BG7" t="n">
         <v>1.874080072948784</v>
       </c>
-      <c r="BG7" t="n">
+      <c r="BH7" t="n">
         <v>1.807953452727868</v>
       </c>
-      <c r="BH7" t="n">
+      <c r="BI7" t="n">
         <v>1.774649983318252</v>
       </c>
-      <c r="BI7" t="n">
+      <c r="BJ7" t="n">
         <v>1.795980154025027</v>
       </c>
-      <c r="BJ7" t="n">
+      <c r="BK7" t="n">
         <v>1.751827266677478</v>
       </c>
-      <c r="BK7" t="n">
+      <c r="BL7" t="n">
         <v>1.775168312356869</v>
       </c>
-      <c r="BL7" t="n">
+      <c r="BM7" t="n">
         <v>1.827246566936799</v>
       </c>
-      <c r="BM7" t="n">
+      <c r="BN7" t="n">
         <v>1.737211788476733</v>
       </c>
-      <c r="BN7" t="n">
+      <c r="BO7" t="n">
         <v>1.736629340553883</v>
       </c>
-      <c r="BO7" t="n">
+      <c r="BP7" t="n">
         <v>1.74107653092415</v>
       </c>
-      <c r="BP7" t="n">
+      <c r="BQ7" t="n">
         <v>1.744684880223166</v>
       </c>
-      <c r="BQ7" t="n">
+      <c r="BR7" t="n">
         <v>1.735087268394121</v>
       </c>
-      <c r="BR7" t="n">
+      <c r="BS7" t="n">
         <v>1.715222052893498</v>
       </c>
-      <c r="BS7" t="n">
+      <c r="BT7" t="n">
         <v>1.722051002848615</v>
       </c>
-      <c r="BT7" t="n">
+      <c r="BU7" t="n">
         <v>1.767013712544438</v>
       </c>
-      <c r="BU7" t="n">
+      <c r="BV7" t="n">
         <v>1.680660848710945</v>
       </c>
-      <c r="BV7" t="n">
+      <c r="BW7" t="n">
         <v>1.664183139601298</v>
       </c>
-      <c r="BW7" t="n">
+      <c r="BX7" t="n">
         <v>1.688099897493244</v>
       </c>
-      <c r="BX7" t="n">
+      <c r="BY7" t="n">
         <v>1.672558095917852</v>
       </c>
-      <c r="BY7" t="n">
+      <c r="BZ7" t="n">
         <v>1.622425767599287</v>
       </c>
-      <c r="BZ7" t="n">
+      <c r="CA7" t="n">
         <v>1.582321613992828</v>
       </c>
-      <c r="CA7" t="n">
+      <c r="CB7" t="n">
         <v>1.503858406137981</v>
       </c>
-      <c r="CB7" t="n">
+      <c r="CC7" t="n">
         <v>1.546803562671054</v>
       </c>
-      <c r="CC7" t="n">
+      <c r="CD7" t="n">
         <v>1.559536730810976</v>
       </c>
-      <c r="CD7" t="n">
+      <c r="CE7" t="n">
         <v>1.544378779360749</v>
       </c>
-      <c r="CE7" t="n">
+      <c r="CF7" t="n">
         <v>1.595362548011928</v>
       </c>
-      <c r="CF7" t="n">
+      <c r="CG7" t="n">
         <v>1.567694649432592</v>
       </c>
-      <c r="CG7" t="n">
+      <c r="CH7" t="n">
         <v>1.510492680278344</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3 квартал 2016</t>
-        </is>
+      <c r="A8" t="n">
+        <v>4.731911812273943</v>
       </c>
       <c r="B8" t="n">
-        <v>4.731911812273943</v>
+        <v>3.690229352810389</v>
       </c>
       <c r="C8" t="n">
-        <v>3.690229352810389</v>
+        <v>3.827695609376915</v>
       </c>
       <c r="D8" t="n">
-        <v>3.827695609376915</v>
+        <v>3.685385467858821</v>
       </c>
       <c r="E8" t="n">
-        <v>3.685385467858821</v>
+        <v>3.398966611072958</v>
       </c>
       <c r="F8" t="n">
-        <v>3.398966611072958</v>
+        <v>3.224108166519512</v>
       </c>
       <c r="G8" t="n">
-        <v>3.224108166519512</v>
+        <v>3.201173414175235</v>
       </c>
       <c r="H8" t="n">
-        <v>3.201173414175235</v>
+        <v>3.052134344528711</v>
       </c>
       <c r="I8" t="n">
-        <v>3.052134344528711</v>
+        <v>2.870669942229661</v>
       </c>
       <c r="J8" t="n">
-        <v>2.870669942229661</v>
+        <v>2.876971844280828</v>
       </c>
       <c r="K8" t="n">
-        <v>2.876971844280828</v>
+        <v>2.717123667349912</v>
       </c>
       <c r="L8" t="n">
-        <v>2.717123667349912</v>
-      </c>
-      <c r="M8" t="n">
         <v>2.740325248003428</v>
       </c>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
         <v>2.584937526230893</v>
       </c>
@@ -2585,136 +2568,133 @@
       <c r="BD8" t="n">
         <v>1.95254783228305</v>
       </c>
-      <c r="BE8" t="n">
+      <c r="BE8" t="inlineStr"/>
+      <c r="BF8" t="n">
         <v>1.869909466291753</v>
       </c>
-      <c r="BF8" t="n">
+      <c r="BG8" t="n">
         <v>1.912777922609959</v>
       </c>
-      <c r="BG8" t="n">
+      <c r="BH8" t="n">
         <v>1.851238029797879</v>
       </c>
-      <c r="BH8" t="n">
+      <c r="BI8" t="n">
         <v>1.818383627509789</v>
       </c>
-      <c r="BI8" t="n">
+      <c r="BJ8" t="n">
         <v>1.816637983757414</v>
       </c>
-      <c r="BJ8" t="n">
+      <c r="BK8" t="n">
         <v>1.787967059441937</v>
       </c>
-      <c r="BK8" t="n">
+      <c r="BL8" t="n">
         <v>1.826248782618368</v>
       </c>
-      <c r="BL8" t="n">
+      <c r="BM8" t="n">
         <v>1.843858184362409</v>
       </c>
-      <c r="BM8" t="n">
+      <c r="BN8" t="n">
         <v>1.793481339991745</v>
       </c>
-      <c r="BN8" t="n">
+      <c r="BO8" t="n">
         <v>1.798450854700855</v>
       </c>
-      <c r="BO8" t="n">
+      <c r="BP8" t="n">
         <v>1.750569809505887</v>
       </c>
-      <c r="BP8" t="n">
+      <c r="BQ8" t="n">
         <v>1.78084678045274</v>
       </c>
-      <c r="BQ8" t="n">
+      <c r="BR8" t="n">
         <v>1.764566187191817</v>
       </c>
-      <c r="BR8" t="n">
+      <c r="BS8" t="n">
         <v>1.757372104406726</v>
       </c>
-      <c r="BS8" t="n">
+      <c r="BT8" t="n">
         <v>1.775603583491306</v>
       </c>
-      <c r="BT8" t="n">
+      <c r="BU8" t="n">
         <v>1.826813387388336</v>
       </c>
-      <c r="BU8" t="n">
+      <c r="BV8" t="n">
         <v>1.71397532478833</v>
       </c>
-      <c r="BV8" t="n">
+      <c r="BW8" t="n">
         <v>1.699694817888059</v>
       </c>
-      <c r="BW8" t="n">
+      <c r="BX8" t="n">
         <v>1.722346220001638</v>
       </c>
-      <c r="BX8" t="n">
+      <c r="BY8" t="n">
         <v>1.704325650527345</v>
       </c>
-      <c r="BY8" t="n">
+      <c r="BZ8" t="n">
         <v>1.627349561415203</v>
       </c>
-      <c r="BZ8" t="n">
+      <c r="CA8" t="n">
         <v>1.598252571328105</v>
       </c>
-      <c r="CA8" t="n">
+      <c r="CB8" t="n">
         <v>1.540652207914082</v>
       </c>
-      <c r="CB8" t="n">
+      <c r="CC8" t="n">
         <v>1.59550948472745</v>
       </c>
-      <c r="CC8" t="n">
+      <c r="CD8" t="n">
         <v>1.574859342686197</v>
       </c>
-      <c r="CD8" t="n">
+      <c r="CE8" t="n">
         <v>1.582293786630945</v>
       </c>
-      <c r="CE8" t="n">
+      <c r="CF8" t="n">
         <v>1.590240843252891</v>
       </c>
-      <c r="CF8" t="n">
+      <c r="CG8" t="n">
         <v>1.597545053510317</v>
       </c>
-      <c r="CG8" t="n">
+      <c r="CH8" t="n">
         <v>1.525504648834564</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4 квартал 2016</t>
-        </is>
+      <c r="A9" t="n">
+        <v>4.550493462981172</v>
       </c>
       <c r="B9" t="n">
-        <v>4.550493462981172</v>
+        <v>3.645194512057718</v>
       </c>
       <c r="C9" t="n">
-        <v>3.645194512057718</v>
+        <v>3.741190750182693</v>
       </c>
       <c r="D9" t="n">
-        <v>3.741190750182693</v>
+        <v>3.622042681292637</v>
       </c>
       <c r="E9" t="n">
-        <v>3.622042681292637</v>
+        <v>3.33084886529182</v>
       </c>
       <c r="F9" t="n">
-        <v>3.33084886529182</v>
+        <v>3.225380480886809</v>
       </c>
       <c r="G9" t="n">
-        <v>3.225380480886809</v>
+        <v>3.123525520787462</v>
       </c>
       <c r="H9" t="n">
-        <v>3.123525520787462</v>
+        <v>3.034898789427422</v>
       </c>
       <c r="I9" t="n">
-        <v>3.034898789427422</v>
+        <v>2.788955903193623</v>
       </c>
       <c r="J9" t="n">
-        <v>2.788955903193623</v>
+        <v>2.809218177525556</v>
       </c>
       <c r="K9" t="n">
-        <v>2.809218177525556</v>
+        <v>2.707420417919095</v>
       </c>
       <c r="L9" t="n">
-        <v>2.707420417919095</v>
-      </c>
-      <c r="M9" t="n">
         <v>2.742164807909454</v>
       </c>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
         <v>2.570336887594296</v>
       </c>
@@ -2844,136 +2824,133 @@
       <c r="BD9" t="n">
         <v>1.96920773575904</v>
       </c>
-      <c r="BE9" t="n">
+      <c r="BE9" t="inlineStr"/>
+      <c r="BF9" t="n">
         <v>1.877744855116578</v>
       </c>
-      <c r="BF9" t="n">
+      <c r="BG9" t="n">
         <v>1.911061098265658</v>
       </c>
-      <c r="BG9" t="n">
+      <c r="BH9" t="n">
         <v>1.849623987496045</v>
       </c>
-      <c r="BH9" t="n">
+      <c r="BI9" t="n">
         <v>1.825966831358674</v>
       </c>
-      <c r="BI9" t="n">
+      <c r="BJ9" t="n">
         <v>1.797785844330608</v>
       </c>
-      <c r="BJ9" t="n">
+      <c r="BK9" t="n">
         <v>1.786384065703107</v>
       </c>
-      <c r="BK9" t="n">
+      <c r="BL9" t="n">
         <v>1.846877080620945</v>
       </c>
-      <c r="BL9" t="n">
+      <c r="BM9" t="n">
         <v>1.834279461929587</v>
       </c>
-      <c r="BM9" t="n">
+      <c r="BN9" t="n">
         <v>1.797429095883489</v>
       </c>
-      <c r="BN9" t="n">
+      <c r="BO9" t="n">
         <v>1.788974658621448</v>
       </c>
-      <c r="BO9" t="n">
+      <c r="BP9" t="n">
         <v>1.745068246001403</v>
       </c>
-      <c r="BP9" t="n">
+      <c r="BQ9" t="n">
         <v>1.805372051335157</v>
       </c>
-      <c r="BQ9" t="n">
+      <c r="BR9" t="n">
         <v>1.762849505534156</v>
       </c>
-      <c r="BR9" t="n">
+      <c r="BS9" t="n">
         <v>1.757957254039532</v>
       </c>
-      <c r="BS9" t="n">
+      <c r="BT9" t="n">
         <v>1.764911725652051</v>
       </c>
-      <c r="BT9" t="n">
+      <c r="BU9" t="n">
         <v>1.823759984222464</v>
       </c>
-      <c r="BU9" t="n">
+      <c r="BV9" t="n">
         <v>1.68925641530485</v>
       </c>
-      <c r="BV9" t="n">
+      <c r="BW9" t="n">
         <v>1.691690453693213</v>
       </c>
-      <c r="BW9" t="n">
+      <c r="BX9" t="n">
         <v>1.705722070844687</v>
       </c>
-      <c r="BX9" t="n">
+      <c r="BY9" t="n">
         <v>1.694881065843684</v>
       </c>
-      <c r="BY9" t="n">
+      <c r="BZ9" t="n">
         <v>1.616003034549611</v>
       </c>
-      <c r="BZ9" t="n">
+      <c r="CA9" t="n">
         <v>1.588952358803665</v>
       </c>
-      <c r="CA9" t="n">
+      <c r="CB9" t="n">
         <v>1.514744641702721</v>
       </c>
-      <c r="CB9" t="n">
+      <c r="CC9" t="n">
         <v>1.586893116175826</v>
       </c>
-      <c r="CC9" t="n">
+      <c r="CD9" t="n">
         <v>1.560687328893776</v>
       </c>
-      <c r="CD9" t="n">
+      <c r="CE9" t="n">
         <v>1.556160402582383</v>
       </c>
-      <c r="CE9" t="n">
+      <c r="CF9" t="n">
         <v>1.574501592755646</v>
       </c>
-      <c r="CF9" t="n">
+      <c r="CG9" t="n">
         <v>1.591022333167245</v>
       </c>
-      <c r="CG9" t="n">
+      <c r="CH9" t="n">
         <v>1.510050281407879</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>1 квартал 2017</t>
-        </is>
+      <c r="A10" t="n">
+        <v>4.432479548690629</v>
       </c>
       <c r="B10" t="n">
-        <v>4.432479548690629</v>
+        <v>3.729212412478767</v>
       </c>
       <c r="C10" t="n">
-        <v>3.729212412478767</v>
+        <v>3.617571781778424</v>
       </c>
       <c r="D10" t="n">
-        <v>3.617571781778424</v>
+        <v>3.663013418443222</v>
       </c>
       <c r="E10" t="n">
-        <v>3.663013418443222</v>
+        <v>3.450013315832525</v>
       </c>
       <c r="F10" t="n">
-        <v>3.450013315832525</v>
+        <v>3.173301462680919</v>
       </c>
       <c r="G10" t="n">
-        <v>3.173301462680919</v>
+        <v>3.102372223242907</v>
       </c>
       <c r="H10" t="n">
-        <v>3.102372223242907</v>
+        <v>3.069090431322497</v>
       </c>
       <c r="I10" t="n">
-        <v>3.069090431322497</v>
+        <v>2.798598776967179</v>
       </c>
       <c r="J10" t="n">
-        <v>2.798598776967179</v>
+        <v>2.718477144324602</v>
       </c>
       <c r="K10" t="n">
-        <v>2.718477144324602</v>
+        <v>2.699656953838124</v>
       </c>
       <c r="L10" t="n">
-        <v>2.699656953838124</v>
-      </c>
-      <c r="M10" t="n">
         <v>2.68536157346019</v>
       </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
         <v>2.574064463618341</v>
       </c>
@@ -3103,136 +3080,133 @@
       <c r="BD10" t="n">
         <v>1.92646254784035</v>
       </c>
-      <c r="BE10" t="n">
+      <c r="BE10" t="inlineStr"/>
+      <c r="BF10" t="n">
         <v>1.873039969638256</v>
       </c>
-      <c r="BF10" t="n">
+      <c r="BG10" t="n">
         <v>1.889684235694965</v>
       </c>
-      <c r="BG10" t="n">
+      <c r="BH10" t="n">
         <v>1.848770314971955</v>
       </c>
-      <c r="BH10" t="n">
+      <c r="BI10" t="n">
         <v>1.829079375736531</v>
       </c>
-      <c r="BI10" t="n">
+      <c r="BJ10" t="n">
         <v>1.779234716120594</v>
       </c>
-      <c r="BJ10" t="n">
+      <c r="BK10" t="n">
         <v>1.786534553456548</v>
       </c>
-      <c r="BK10" t="n">
+      <c r="BL10" t="n">
         <v>1.818571451460433</v>
       </c>
-      <c r="BL10" t="n">
+      <c r="BM10" t="n">
         <v>1.823625558325738</v>
       </c>
-      <c r="BM10" t="n">
+      <c r="BN10" t="n">
         <v>1.784326975132281</v>
       </c>
-      <c r="BN10" t="n">
+      <c r="BO10" t="n">
         <v>1.793405837596183</v>
       </c>
-      <c r="BO10" t="n">
+      <c r="BP10" t="n">
         <v>1.730236074939091</v>
       </c>
-      <c r="BP10" t="n">
+      <c r="BQ10" t="n">
         <v>1.793585688871318</v>
       </c>
-      <c r="BQ10" t="n">
+      <c r="BR10" t="n">
         <v>1.761315560816989</v>
       </c>
-      <c r="BR10" t="n">
+      <c r="BS10" t="n">
         <v>1.746951625408212</v>
       </c>
-      <c r="BS10" t="n">
+      <c r="BT10" t="n">
         <v>1.74316201152813</v>
       </c>
-      <c r="BT10" t="n">
+      <c r="BU10" t="n">
         <v>1.795242471241614</v>
       </c>
-      <c r="BU10" t="n">
+      <c r="BV10" t="n">
         <v>1.688596321693351</v>
       </c>
-      <c r="BV10" t="n">
+      <c r="BW10" t="n">
         <v>1.685759550405579</v>
       </c>
-      <c r="BW10" t="n">
+      <c r="BX10" t="n">
         <v>1.681826454169653</v>
       </c>
-      <c r="BX10" t="n">
+      <c r="BY10" t="n">
         <v>1.686467754893504</v>
       </c>
-      <c r="BY10" t="n">
+      <c r="BZ10" t="n">
         <v>1.610985993286424</v>
       </c>
-      <c r="BZ10" t="n">
+      <c r="CA10" t="n">
         <v>1.56951625214223</v>
       </c>
-      <c r="CA10" t="n">
+      <c r="CB10" t="n">
         <v>1.524275401911692</v>
       </c>
-      <c r="CB10" t="n">
+      <c r="CC10" t="n">
         <v>1.595024267206787</v>
       </c>
-      <c r="CC10" t="n">
+      <c r="CD10" t="n">
         <v>1.511736815443543</v>
       </c>
-      <c r="CD10" t="n">
+      <c r="CE10" t="n">
         <v>1.524926686217009</v>
       </c>
-      <c r="CE10" t="n">
+      <c r="CF10" t="n">
         <v>1.58581951664162</v>
       </c>
-      <c r="CF10" t="n">
+      <c r="CG10" t="n">
         <v>1.546528905004465</v>
       </c>
-      <c r="CG10" t="n">
+      <c r="CH10" t="n">
         <v>1.519810912240185</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2 квартал 2017</t>
-        </is>
+      <c r="A11" t="n">
+        <v>4.699332087709125</v>
       </c>
       <c r="B11" t="n">
-        <v>4.699332087709125</v>
+        <v>3.774897185339209</v>
       </c>
       <c r="C11" t="n">
-        <v>3.774897185339209</v>
+        <v>3.736975776943717</v>
       </c>
       <c r="D11" t="n">
-        <v>3.736975776943717</v>
+        <v>3.773760760287927</v>
       </c>
       <c r="E11" t="n">
-        <v>3.773760760287927</v>
+        <v>3.646376278316293</v>
       </c>
       <c r="F11" t="n">
-        <v>3.646376278316293</v>
+        <v>3.171164532286534</v>
       </c>
       <c r="G11" t="n">
-        <v>3.171164532286534</v>
+        <v>3.124620556547267</v>
       </c>
       <c r="H11" t="n">
-        <v>3.124620556547267</v>
+        <v>3.120602048831576</v>
       </c>
       <c r="I11" t="n">
-        <v>3.120602048831576</v>
+        <v>2.797813215635774</v>
       </c>
       <c r="J11" t="n">
-        <v>2.797813215635774</v>
+        <v>2.740965885633884</v>
       </c>
       <c r="K11" t="n">
-        <v>2.740965885633884</v>
+        <v>2.698271598883426</v>
       </c>
       <c r="L11" t="n">
-        <v>2.698271598883426</v>
-      </c>
-      <c r="M11" t="n">
         <v>2.757234089202163</v>
       </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
         <v>2.626514752046361</v>
       </c>
@@ -3362,136 +3336,133 @@
       <c r="BD11" t="n">
         <v>1.90548920415719</v>
       </c>
-      <c r="BE11" t="n">
+      <c r="BE11" t="inlineStr"/>
+      <c r="BF11" t="n">
         <v>1.863388909278386</v>
       </c>
-      <c r="BF11" t="n">
+      <c r="BG11" t="n">
         <v>1.932729974872223</v>
       </c>
-      <c r="BG11" t="n">
+      <c r="BH11" t="n">
         <v>1.837099727464002</v>
       </c>
-      <c r="BH11" t="n">
+      <c r="BI11" t="n">
         <v>1.827119404488313</v>
       </c>
-      <c r="BI11" t="n">
+      <c r="BJ11" t="n">
         <v>1.767262850607084</v>
       </c>
-      <c r="BJ11" t="n">
+      <c r="BK11" t="n">
         <v>1.782455645561422</v>
       </c>
-      <c r="BK11" t="n">
+      <c r="BL11" t="n">
         <v>1.814401809431134</v>
       </c>
-      <c r="BL11" t="n">
+      <c r="BM11" t="n">
         <v>1.821826247798436</v>
       </c>
-      <c r="BM11" t="n">
+      <c r="BN11" t="n">
         <v>1.784707808531758</v>
       </c>
-      <c r="BN11" t="n">
+      <c r="BO11" t="n">
         <v>1.849806680352714</v>
       </c>
-      <c r="BO11" t="n">
+      <c r="BP11" t="n">
         <v>1.714826324495012</v>
       </c>
-      <c r="BP11" t="n">
+      <c r="BQ11" t="n">
         <v>1.787408598033124</v>
       </c>
-      <c r="BQ11" t="n">
+      <c r="BR11" t="n">
         <v>1.731451022043891</v>
       </c>
-      <c r="BR11" t="n">
+      <c r="BS11" t="n">
         <v>1.747400971950307</v>
       </c>
-      <c r="BS11" t="n">
+      <c r="BT11" t="n">
         <v>1.720333998143433</v>
       </c>
-      <c r="BT11" t="n">
+      <c r="BU11" t="n">
         <v>1.750824765951198</v>
       </c>
-      <c r="BU11" t="n">
+      <c r="BV11" t="n">
         <v>1.661709923974055</v>
       </c>
-      <c r="BV11" t="n">
+      <c r="BW11" t="n">
         <v>1.68720966838813</v>
       </c>
-      <c r="BW11" t="n">
+      <c r="BX11" t="n">
         <v>1.679479193384876</v>
       </c>
-      <c r="BX11" t="n">
+      <c r="BY11" t="n">
         <v>1.674980716080251</v>
       </c>
-      <c r="BY11" t="n">
+      <c r="BZ11" t="n">
         <v>1.607403056125602</v>
       </c>
-      <c r="BZ11" t="n">
+      <c r="CA11" t="n">
         <v>1.548050302660599</v>
       </c>
-      <c r="CA11" t="n">
+      <c r="CB11" t="n">
         <v>1.526673079449291</v>
       </c>
-      <c r="CB11" t="n">
+      <c r="CC11" t="n">
         <v>1.61442487860899</v>
       </c>
-      <c r="CC11" t="n">
+      <c r="CD11" t="n">
         <v>1.457487952580978</v>
       </c>
-      <c r="CD11" t="n">
+      <c r="CE11" t="n">
         <v>1.5230185218211</v>
       </c>
-      <c r="CE11" t="n">
+      <c r="CF11" t="n">
         <v>1.566099664866234</v>
       </c>
-      <c r="CF11" t="n">
+      <c r="CG11" t="n">
         <v>1.505636467204411</v>
       </c>
-      <c r="CG11" t="n">
+      <c r="CH11" t="n">
         <v>1.541237710753047</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>3 квартал 2017</t>
-        </is>
+      <c r="A12" t="n">
+        <v>4.85105612488528</v>
       </c>
       <c r="B12" t="n">
-        <v>4.85105612488528</v>
+        <v>3.779292156175651</v>
       </c>
       <c r="C12" t="n">
-        <v>3.779292156175651</v>
+        <v>3.836841342437517</v>
       </c>
       <c r="D12" t="n">
-        <v>3.836841342437517</v>
+        <v>3.883338226784375</v>
       </c>
       <c r="E12" t="n">
-        <v>3.883338226784375</v>
+        <v>3.667527865033488</v>
       </c>
       <c r="F12" t="n">
-        <v>3.667527865033488</v>
+        <v>3.312379299290846</v>
       </c>
       <c r="G12" t="n">
-        <v>3.312379299290846</v>
+        <v>3.227746735804881</v>
       </c>
       <c r="H12" t="n">
-        <v>3.227746735804881</v>
+        <v>3.185244931542385</v>
       </c>
       <c r="I12" t="n">
-        <v>3.185244931542385</v>
+        <v>2.876212722120127</v>
       </c>
       <c r="J12" t="n">
-        <v>2.876212722120127</v>
+        <v>2.82418739831355</v>
       </c>
       <c r="K12" t="n">
-        <v>2.82418739831355</v>
+        <v>2.735556693680394</v>
       </c>
       <c r="L12" t="n">
-        <v>2.735556693680394</v>
-      </c>
-      <c r="M12" t="n">
         <v>2.791462500457087</v>
       </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
         <v>2.691800087334325</v>
       </c>
@@ -3621,136 +3592,133 @@
       <c r="BD12" t="n">
         <v>1.96836171950706</v>
       </c>
-      <c r="BE12" t="n">
+      <c r="BE12" t="inlineStr"/>
+      <c r="BF12" t="n">
         <v>1.933226595934964</v>
       </c>
-      <c r="BF12" t="n">
+      <c r="BG12" t="n">
         <v>1.978353536567823</v>
       </c>
-      <c r="BG12" t="n">
+      <c r="BH12" t="n">
         <v>1.889465691987146</v>
       </c>
-      <c r="BH12" t="n">
+      <c r="BI12" t="n">
         <v>1.884940051032073</v>
       </c>
-      <c r="BI12" t="n">
+      <c r="BJ12" t="n">
         <v>1.802045621339065</v>
       </c>
-      <c r="BJ12" t="n">
+      <c r="BK12" t="n">
         <v>1.855805478107411</v>
       </c>
-      <c r="BK12" t="n">
+      <c r="BL12" t="n">
         <v>1.876942883160109</v>
       </c>
-      <c r="BL12" t="n">
+      <c r="BM12" t="n">
         <v>1.857736596337677</v>
       </c>
-      <c r="BM12" t="n">
+      <c r="BN12" t="n">
         <v>1.837498428951411</v>
       </c>
-      <c r="BN12" t="n">
+      <c r="BO12" t="n">
         <v>1.903601517815075</v>
       </c>
-      <c r="BO12" t="n">
+      <c r="BP12" t="n">
         <v>1.733905367144322</v>
       </c>
-      <c r="BP12" t="n">
+      <c r="BQ12" t="n">
         <v>1.846195974624618</v>
       </c>
-      <c r="BQ12" t="n">
+      <c r="BR12" t="n">
         <v>1.78368707416303</v>
       </c>
-      <c r="BR12" t="n">
+      <c r="BS12" t="n">
         <v>1.808109473014994</v>
       </c>
-      <c r="BS12" t="n">
+      <c r="BT12" t="n">
         <v>1.773077614955651</v>
       </c>
-      <c r="BT12" t="n">
+      <c r="BU12" t="n">
         <v>1.810444719702721</v>
       </c>
-      <c r="BU12" t="n">
+      <c r="BV12" t="n">
         <v>1.753683095938667</v>
       </c>
-      <c r="BV12" t="n">
+      <c r="BW12" t="n">
         <v>1.774793492889318</v>
       </c>
-      <c r="BW12" t="n">
+      <c r="BX12" t="n">
         <v>1.721802622626187</v>
       </c>
-      <c r="BX12" t="n">
+      <c r="BY12" t="n">
         <v>1.728670533324015</v>
       </c>
-      <c r="BY12" t="n">
+      <c r="BZ12" t="n">
         <v>1.656829455421101</v>
       </c>
-      <c r="BZ12" t="n">
+      <c r="CA12" t="n">
         <v>1.602011258163107</v>
       </c>
-      <c r="CA12" t="n">
+      <c r="CB12" t="n">
         <v>1.560486058144924</v>
       </c>
-      <c r="CB12" t="n">
+      <c r="CC12" t="n">
         <v>1.671072216165628</v>
       </c>
-      <c r="CC12" t="n">
+      <c r="CD12" t="n">
         <v>1.507422169969126</v>
       </c>
-      <c r="CD12" t="n">
+      <c r="CE12" t="n">
         <v>1.622762118957114</v>
       </c>
-      <c r="CE12" t="n">
+      <c r="CF12" t="n">
         <v>1.565319597607771</v>
       </c>
-      <c r="CF12" t="n">
+      <c r="CG12" t="n">
         <v>1.570054016371007</v>
       </c>
-      <c r="CG12" t="n">
+      <c r="CH12" t="n">
         <v>1.593130804448902</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4 квартал 2017</t>
-        </is>
+      <c r="A13" t="n">
+        <v>4.734084586899129</v>
       </c>
       <c r="B13" t="n">
-        <v>4.734084586899129</v>
+        <v>3.772162224797218</v>
       </c>
       <c r="C13" t="n">
-        <v>3.772162224797218</v>
+        <v>3.809381347205093</v>
       </c>
       <c r="D13" t="n">
-        <v>3.809381347205093</v>
+        <v>3.877270887556407</v>
       </c>
       <c r="E13" t="n">
-        <v>3.877270887556407</v>
+        <v>3.298172717376238</v>
       </c>
       <c r="F13" t="n">
-        <v>3.298172717376238</v>
+        <v>3.358385451430519</v>
       </c>
       <c r="G13" t="n">
-        <v>3.358385451430519</v>
+        <v>3.162350829134318</v>
       </c>
       <c r="H13" t="n">
-        <v>3.162350829134318</v>
+        <v>3.218480670539772</v>
       </c>
       <c r="I13" t="n">
-        <v>3.218480670539772</v>
+        <v>2.829810921991168</v>
       </c>
       <c r="J13" t="n">
-        <v>2.829810921991168</v>
+        <v>2.814394474167196</v>
       </c>
       <c r="K13" t="n">
-        <v>2.814394474167196</v>
+        <v>2.748282058987851</v>
       </c>
       <c r="L13" t="n">
-        <v>2.748282058987851</v>
-      </c>
-      <c r="M13" t="n">
         <v>2.816630640177428</v>
       </c>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
         <v>2.690833775007511</v>
       </c>
@@ -3880,136 +3848,133 @@
       <c r="BD13" t="n">
         <v>2.002859949452056</v>
       </c>
-      <c r="BE13" t="n">
+      <c r="BE13" t="inlineStr"/>
+      <c r="BF13" t="n">
         <v>1.951540437157277</v>
       </c>
-      <c r="BF13" t="n">
+      <c r="BG13" t="n">
         <v>1.987310125832366</v>
       </c>
-      <c r="BG13" t="n">
+      <c r="BH13" t="n">
         <v>1.89993914322181</v>
       </c>
-      <c r="BH13" t="n">
+      <c r="BI13" t="n">
         <v>1.892995248257351</v>
       </c>
-      <c r="BI13" t="n">
+      <c r="BJ13" t="n">
         <v>1.772914314253453</v>
       </c>
-      <c r="BJ13" t="n">
+      <c r="BK13" t="n">
         <v>1.872164764948707</v>
       </c>
-      <c r="BK13" t="n">
+      <c r="BL13" t="n">
         <v>1.920774894024484</v>
       </c>
-      <c r="BL13" t="n">
+      <c r="BM13" t="n">
         <v>1.873730339452268</v>
       </c>
-      <c r="BM13" t="n">
+      <c r="BN13" t="n">
         <v>1.862583209963454</v>
       </c>
-      <c r="BN13" t="n">
+      <c r="BO13" t="n">
         <v>1.906893918831506</v>
       </c>
-      <c r="BO13" t="n">
+      <c r="BP13" t="n">
         <v>1.76638894432249</v>
       </c>
-      <c r="BP13" t="n">
+      <c r="BQ13" t="n">
         <v>1.870347985053915</v>
       </c>
-      <c r="BQ13" t="n">
+      <c r="BR13" t="n">
         <v>1.802628463177836</v>
       </c>
-      <c r="BR13" t="n">
+      <c r="BS13" t="n">
         <v>1.831016507384883</v>
       </c>
-      <c r="BS13" t="n">
+      <c r="BT13" t="n">
         <v>1.788063161954146</v>
       </c>
-      <c r="BT13" t="n">
+      <c r="BU13" t="n">
         <v>1.829784945733751</v>
       </c>
-      <c r="BU13" t="n">
+      <c r="BV13" t="n">
         <v>1.751911765456094</v>
       </c>
-      <c r="BV13" t="n">
+      <c r="BW13" t="n">
         <v>1.795344398722145</v>
       </c>
-      <c r="BW13" t="n">
+      <c r="BX13" t="n">
         <v>1.720487533653283</v>
       </c>
-      <c r="BX13" t="n">
+      <c r="BY13" t="n">
         <v>1.739636606552894</v>
       </c>
-      <c r="BY13" t="n">
+      <c r="BZ13" t="n">
         <v>1.681275954053854</v>
       </c>
-      <c r="BZ13" t="n">
+      <c r="CA13" t="n">
         <v>1.599081957015042</v>
       </c>
-      <c r="CA13" t="n">
+      <c r="CB13" t="n">
         <v>1.576492635524252</v>
       </c>
-      <c r="CB13" t="n">
+      <c r="CC13" t="n">
         <v>1.66598612688726</v>
       </c>
-      <c r="CC13" t="n">
+      <c r="CD13" t="n">
         <v>1.536072823216471</v>
       </c>
-      <c r="CD13" t="n">
+      <c r="CE13" t="n">
         <v>1.628323856908962</v>
       </c>
-      <c r="CE13" t="n">
+      <c r="CF13" t="n">
         <v>1.544615931672559</v>
       </c>
-      <c r="CF13" t="n">
+      <c r="CG13" t="n">
         <v>1.590222861250899</v>
       </c>
-      <c r="CG13" t="n">
+      <c r="CH13" t="n">
         <v>1.566839668957778</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>1 квартал 2018</t>
-        </is>
+      <c r="A14" t="n">
+        <v>4.742816395520811</v>
       </c>
       <c r="B14" t="n">
-        <v>4.742816395520811</v>
+        <v>3.955717590969642</v>
       </c>
       <c r="C14" t="n">
-        <v>3.955717590969642</v>
+        <v>3.773135131901657</v>
       </c>
       <c r="D14" t="n">
-        <v>3.773135131901657</v>
+        <v>3.654900088522862</v>
       </c>
       <c r="E14" t="n">
-        <v>3.654900088522862</v>
+        <v>3.492848927802923</v>
       </c>
       <c r="F14" t="n">
-        <v>3.492848927802923</v>
+        <v>3.665851445319513</v>
       </c>
       <c r="G14" t="n">
-        <v>3.665851445319513</v>
+        <v>3.253082436419354</v>
       </c>
       <c r="H14" t="n">
-        <v>3.253082436419354</v>
+        <v>3.385590090690044</v>
       </c>
       <c r="I14" t="n">
-        <v>3.385590090690044</v>
+        <v>2.965724359662555</v>
       </c>
       <c r="J14" t="n">
-        <v>2.965724359662555</v>
+        <v>2.882885693516736</v>
       </c>
       <c r="K14" t="n">
-        <v>2.882885693516736</v>
+        <v>2.807698562316676</v>
       </c>
       <c r="L14" t="n">
-        <v>2.807698562316676</v>
-      </c>
-      <c r="M14" t="n">
         <v>2.789381726451604</v>
       </c>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
         <v>2.740870872824806</v>
       </c>
@@ -4139,136 +4104,133 @@
       <c r="BD14" t="n">
         <v>1.942878914767283</v>
       </c>
-      <c r="BE14" t="n">
+      <c r="BE14" t="inlineStr"/>
+      <c r="BF14" t="n">
         <v>1.991859635467341</v>
       </c>
-      <c r="BF14" t="n">
+      <c r="BG14" t="n">
         <v>2.032845211355075</v>
       </c>
-      <c r="BG14" t="n">
+      <c r="BH14" t="n">
         <v>1.94873201593816</v>
       </c>
-      <c r="BH14" t="n">
+      <c r="BI14" t="n">
         <v>1.910592914447607</v>
       </c>
-      <c r="BI14" t="n">
+      <c r="BJ14" t="n">
         <v>1.856526873964633</v>
       </c>
-      <c r="BJ14" t="n">
+      <c r="BK14" t="n">
         <v>1.910071199479351</v>
       </c>
-      <c r="BK14" t="n">
+      <c r="BL14" t="n">
         <v>1.928854930757247</v>
       </c>
-      <c r="BL14" t="n">
+      <c r="BM14" t="n">
         <v>1.890533602621586</v>
       </c>
-      <c r="BM14" t="n">
+      <c r="BN14" t="n">
         <v>1.894121796739614</v>
       </c>
-      <c r="BN14" t="n">
+      <c r="BO14" t="n">
         <v>1.918813756977179</v>
       </c>
-      <c r="BO14" t="n">
+      <c r="BP14" t="n">
         <v>1.937595511256073</v>
       </c>
-      <c r="BP14" t="n">
+      <c r="BQ14" t="n">
         <v>1.893545893457741</v>
       </c>
-      <c r="BQ14" t="n">
+      <c r="BR14" t="n">
         <v>1.836673591815424</v>
       </c>
-      <c r="BR14" t="n">
+      <c r="BS14" t="n">
         <v>1.861110360768848</v>
       </c>
-      <c r="BS14" t="n">
+      <c r="BT14" t="n">
         <v>1.824870925523254</v>
       </c>
-      <c r="BT14" t="n">
+      <c r="BU14" t="n">
         <v>1.836778683308357</v>
       </c>
-      <c r="BU14" t="n">
+      <c r="BV14" t="n">
         <v>1.876871993465041</v>
       </c>
-      <c r="BV14" t="n">
+      <c r="BW14" t="n">
         <v>1.807264081098012</v>
       </c>
-      <c r="BW14" t="n">
+      <c r="BX14" t="n">
         <v>1.797575041205211</v>
       </c>
-      <c r="BX14" t="n">
+      <c r="BY14" t="n">
         <v>1.770617043518107</v>
       </c>
-      <c r="BY14" t="n">
+      <c r="BZ14" t="n">
         <v>1.708583567176313</v>
       </c>
-      <c r="BZ14" t="n">
+      <c r="CA14" t="n">
         <v>1.68964816941651</v>
       </c>
-      <c r="CA14" t="n">
+      <c r="CB14" t="n">
         <v>1.699639502740103</v>
       </c>
-      <c r="CB14" t="n">
+      <c r="CC14" t="n">
         <v>1.688328988867607</v>
       </c>
-      <c r="CC14" t="n">
+      <c r="CD14" t="n">
         <v>1.724010791038619</v>
       </c>
-      <c r="CD14" t="n">
+      <c r="CE14" t="n">
         <v>1.635586649862023</v>
       </c>
-      <c r="CE14" t="n">
+      <c r="CF14" t="n">
         <v>1.579747957569835</v>
       </c>
-      <c r="CF14" t="n">
+      <c r="CG14" t="n">
         <v>1.63561185703546</v>
       </c>
-      <c r="CG14" t="n">
+      <c r="CH14" t="n">
         <v>1.62340125160665</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2 квартал 2018</t>
-        </is>
+      <c r="A15" t="n">
+        <v>5.097806414501376</v>
       </c>
       <c r="B15" t="n">
-        <v>5.097806414501376</v>
+        <v>4.015692305977677</v>
       </c>
       <c r="C15" t="n">
-        <v>4.015692305977677</v>
+        <v>3.957907398658975</v>
       </c>
       <c r="D15" t="n">
-        <v>3.957907398658975</v>
+        <v>3.758766345581866</v>
       </c>
       <c r="E15" t="n">
-        <v>3.758766345581866</v>
+        <v>3.697472311608104</v>
       </c>
       <c r="F15" t="n">
-        <v>3.697472311608104</v>
+        <v>3.862463516942514</v>
       </c>
       <c r="G15" t="n">
-        <v>3.862463516942514</v>
+        <v>3.343041581117868</v>
       </c>
       <c r="H15" t="n">
-        <v>3.343041581117868</v>
+        <v>3.500882308957679</v>
       </c>
       <c r="I15" t="n">
-        <v>3.500882308957679</v>
+        <v>3.073392701148676</v>
       </c>
       <c r="J15" t="n">
-        <v>3.073392701148676</v>
+        <v>2.987597004234217</v>
       </c>
       <c r="K15" t="n">
-        <v>2.987597004234217</v>
+        <v>2.864236410271646</v>
       </c>
       <c r="L15" t="n">
-        <v>2.864236410271646</v>
-      </c>
-      <c r="M15" t="n">
         <v>2.902674599833903</v>
       </c>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
         <v>2.859040424672883</v>
       </c>
@@ -4398,136 +4360,133 @@
       <c r="BD15" t="n">
         <v>1.90162981221999</v>
       </c>
-      <c r="BE15" t="n">
+      <c r="BE15" t="inlineStr"/>
+      <c r="BF15" t="n">
         <v>2.038799625872981</v>
       </c>
-      <c r="BF15" t="n">
+      <c r="BG15" t="n">
         <v>2.108580501356392</v>
       </c>
-      <c r="BG15" t="n">
+      <c r="BH15" t="n">
         <v>1.998767908176735</v>
       </c>
-      <c r="BH15" t="n">
+      <c r="BI15" t="n">
         <v>1.954644871647289</v>
       </c>
-      <c r="BI15" t="n">
+      <c r="BJ15" t="n">
         <v>1.98652847307912</v>
       </c>
-      <c r="BJ15" t="n">
+      <c r="BK15" t="n">
         <v>1.946882401195249</v>
       </c>
-      <c r="BK15" t="n">
+      <c r="BL15" t="n">
         <v>1.932928351073821</v>
       </c>
-      <c r="BL15" t="n">
+      <c r="BM15" t="n">
         <v>1.905164230112019</v>
       </c>
-      <c r="BM15" t="n">
+      <c r="BN15" t="n">
         <v>1.926870752597408</v>
       </c>
-      <c r="BN15" t="n">
+      <c r="BO15" t="n">
         <v>1.928283056369586</v>
       </c>
-      <c r="BO15" t="n">
+      <c r="BP15" t="n">
         <v>1.927273000307847</v>
       </c>
-      <c r="BP15" t="n">
+      <c r="BQ15" t="n">
         <v>1.928290746480476</v>
       </c>
-      <c r="BQ15" t="n">
+      <c r="BR15" t="n">
         <v>1.877433098058804</v>
       </c>
-      <c r="BR15" t="n">
+      <c r="BS15" t="n">
         <v>1.879502025752731</v>
       </c>
-      <c r="BS15" t="n">
+      <c r="BT15" t="n">
         <v>1.858430295012268</v>
       </c>
-      <c r="BT15" t="n">
+      <c r="BU15" t="n">
         <v>1.818045970765636</v>
       </c>
-      <c r="BU15" t="n">
+      <c r="BV15" t="n">
         <v>1.913565878035373</v>
       </c>
-      <c r="BV15" t="n">
+      <c r="BW15" t="n">
         <v>1.849369594469245</v>
       </c>
-      <c r="BW15" t="n">
+      <c r="BX15" t="n">
         <v>1.84402155444439</v>
       </c>
-      <c r="BX15" t="n">
+      <c r="BY15" t="n">
         <v>1.821239176148231</v>
       </c>
-      <c r="BY15" t="n">
+      <c r="BZ15" t="n">
         <v>1.746721224438392</v>
       </c>
-      <c r="BZ15" t="n">
+      <c r="CA15" t="n">
         <v>1.744098538356911</v>
       </c>
-      <c r="CA15" t="n">
+      <c r="CB15" t="n">
         <v>1.778936204787848</v>
       </c>
-      <c r="CB15" t="n">
+      <c r="CC15" t="n">
         <v>1.741437989385249</v>
       </c>
-      <c r="CC15" t="n">
+      <c r="CD15" t="n">
         <v>1.793542558454688</v>
       </c>
-      <c r="CD15" t="n">
+      <c r="CE15" t="n">
         <v>1.700914574820004</v>
       </c>
-      <c r="CE15" t="n">
+      <c r="CF15" t="n">
         <v>1.617808871226629</v>
       </c>
-      <c r="CF15" t="n">
+      <c r="CG15" t="n">
         <v>1.658893210464309</v>
       </c>
-      <c r="CG15" t="n">
+      <c r="CH15" t="n">
         <v>1.659858609020985</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>3 квартал 2018</t>
-        </is>
+      <c r="A16" t="n">
+        <v>5.151138994774399</v>
       </c>
       <c r="B16" t="n">
-        <v>5.151138994774399</v>
+        <v>4.042884826017357</v>
       </c>
       <c r="C16" t="n">
-        <v>4.042884826017357</v>
+        <v>4.039655273955121</v>
       </c>
       <c r="D16" t="n">
-        <v>4.039655273955121</v>
+        <v>3.80676730410623</v>
       </c>
       <c r="E16" t="n">
-        <v>3.80676730410623</v>
+        <v>3.748319591664567</v>
       </c>
       <c r="F16" t="n">
-        <v>3.748319591664567</v>
+        <v>3.912851289818654</v>
       </c>
       <c r="G16" t="n">
-        <v>3.912851289818654</v>
+        <v>3.420397772694875</v>
       </c>
       <c r="H16" t="n">
-        <v>3.420397772694875</v>
+        <v>3.491095913366283</v>
       </c>
       <c r="I16" t="n">
-        <v>3.491095913366283</v>
+        <v>3.137436150506194</v>
       </c>
       <c r="J16" t="n">
-        <v>3.137436150506194</v>
+        <v>3.036826072357588</v>
       </c>
       <c r="K16" t="n">
-        <v>3.036826072357588</v>
+        <v>2.911239791780801</v>
       </c>
       <c r="L16" t="n">
-        <v>2.911239791780801</v>
-      </c>
-      <c r="M16" t="n">
         <v>2.97338959212377</v>
       </c>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
         <v>2.901983117497418</v>
       </c>
@@ -4657,136 +4616,133 @@
       <c r="BD16" t="n">
         <v>2.082115255169975</v>
       </c>
-      <c r="BE16" t="n">
+      <c r="BE16" t="inlineStr"/>
+      <c r="BF16" t="n">
         <v>2.071692691275592</v>
       </c>
-      <c r="BF16" t="n">
+      <c r="BG16" t="n">
         <v>2.150543359415853</v>
       </c>
-      <c r="BG16" t="n">
+      <c r="BH16" t="n">
         <v>2.0403992319294</v>
       </c>
-      <c r="BH16" t="n">
+      <c r="BI16" t="n">
         <v>2.002482007688389</v>
       </c>
-      <c r="BI16" t="n">
+      <c r="BJ16" t="n">
         <v>2.042165122708631</v>
       </c>
-      <c r="BJ16" t="n">
+      <c r="BK16" t="n">
         <v>1.996214982868219</v>
       </c>
-      <c r="BK16" t="n">
+      <c r="BL16" t="n">
         <v>1.976300170701863</v>
       </c>
-      <c r="BL16" t="n">
+      <c r="BM16" t="n">
         <v>1.919044038163275</v>
       </c>
-      <c r="BM16" t="n">
+      <c r="BN16" t="n">
         <v>1.978622874675289</v>
       </c>
-      <c r="BN16" t="n">
+      <c r="BO16" t="n">
         <v>1.990634452994905</v>
       </c>
-      <c r="BO16" t="n">
+      <c r="BP16" t="n">
         <v>1.989421215568758</v>
       </c>
-      <c r="BP16" t="n">
+      <c r="BQ16" t="n">
         <v>2.006717192920432</v>
       </c>
-      <c r="BQ16" t="n">
+      <c r="BR16" t="n">
         <v>1.89912295108892</v>
       </c>
-      <c r="BR16" t="n">
+      <c r="BS16" t="n">
         <v>1.924129331477506</v>
       </c>
-      <c r="BS16" t="n">
+      <c r="BT16" t="n">
         <v>1.909417917275899</v>
       </c>
-      <c r="BT16" t="n">
+      <c r="BU16" t="n">
         <v>1.867325328902496</v>
       </c>
-      <c r="BU16" t="n">
+      <c r="BV16" t="n">
         <v>1.96022699307996</v>
       </c>
-      <c r="BV16" t="n">
+      <c r="BW16" t="n">
         <v>1.89583294646339</v>
       </c>
-      <c r="BW16" t="n">
+      <c r="BX16" t="n">
         <v>1.88727970267354</v>
       </c>
-      <c r="BX16" t="n">
+      <c r="BY16" t="n">
         <v>1.877970198281513</v>
       </c>
-      <c r="BY16" t="n">
+      <c r="BZ16" t="n">
         <v>1.795877259082053</v>
       </c>
-      <c r="BZ16" t="n">
+      <c r="CA16" t="n">
         <v>1.751874096820809</v>
       </c>
-      <c r="CA16" t="n">
+      <c r="CB16" t="n">
         <v>1.841565205034001</v>
       </c>
-      <c r="CB16" t="n">
+      <c r="CC16" t="n">
         <v>1.79902962206333</v>
       </c>
-      <c r="CC16" t="n">
+      <c r="CD16" t="n">
         <v>1.785430318968403</v>
       </c>
-      <c r="CD16" t="n">
+      <c r="CE16" t="n">
         <v>1.760187743047247</v>
       </c>
-      <c r="CE16" t="n">
+      <c r="CF16" t="n">
         <v>1.633413681976577</v>
       </c>
-      <c r="CF16" t="n">
+      <c r="CG16" t="n">
         <v>1.706203587341484</v>
       </c>
-      <c r="CG16" t="n">
+      <c r="CH16" t="n">
         <v>1.701415671693494</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4 квартал 2018</t>
-        </is>
+      <c r="A17" t="n">
+        <v>5.069587986435391</v>
       </c>
       <c r="B17" t="n">
-        <v>5.069587986435391</v>
+        <v>4.007566689854715</v>
       </c>
       <c r="C17" t="n">
-        <v>4.007566689854715</v>
+        <v>3.992630349703321</v>
       </c>
       <c r="D17" t="n">
-        <v>3.992630349703321</v>
+        <v>3.713643345793889</v>
       </c>
       <c r="E17" t="n">
-        <v>3.713643345793889</v>
+        <v>3.672512536568135</v>
       </c>
       <c r="F17" t="n">
-        <v>3.672512536568135</v>
+        <v>3.815103302564546</v>
       </c>
       <c r="G17" t="n">
-        <v>3.815103302564546</v>
+        <v>3.349750808236081</v>
       </c>
       <c r="H17" t="n">
-        <v>3.349750808236081</v>
+        <v>3.446294770703386</v>
       </c>
       <c r="I17" t="n">
-        <v>3.446294770703386</v>
+        <v>3.073261521230688</v>
       </c>
       <c r="J17" t="n">
-        <v>3.073261521230688</v>
+        <v>2.972862328947185</v>
       </c>
       <c r="K17" t="n">
-        <v>2.972862328947185</v>
+        <v>2.899913553348536</v>
       </c>
       <c r="L17" t="n">
-        <v>2.899913553348536</v>
-      </c>
-      <c r="M17" t="n">
         <v>2.972073974617611</v>
       </c>
+      <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
         <v>2.847396677120479</v>
       </c>
@@ -4916,136 +4872,133 @@
       <c r="BD17" t="n">
         <v>2.095777889311903</v>
       </c>
-      <c r="BE17" t="n">
+      <c r="BE17" t="inlineStr"/>
+      <c r="BF17" t="n">
         <v>2.056388752261304</v>
       </c>
-      <c r="BF17" t="n">
+      <c r="BG17" t="n">
         <v>2.135514537284179</v>
       </c>
-      <c r="BG17" t="n">
+      <c r="BH17" t="n">
         <v>2.03311785860609</v>
       </c>
-      <c r="BH17" t="n">
+      <c r="BI17" t="n">
         <v>1.994399066511085</v>
       </c>
-      <c r="BI17" t="n">
+      <c r="BJ17" t="n">
         <v>1.924184461655849</v>
       </c>
-      <c r="BJ17" t="n">
+      <c r="BK17" t="n">
         <v>1.983036629227029</v>
       </c>
-      <c r="BK17" t="n">
+      <c r="BL17" t="n">
         <v>1.981628259390156</v>
       </c>
-      <c r="BL17" t="n">
+      <c r="BM17" t="n">
         <v>1.915972144535183</v>
       </c>
-      <c r="BM17" t="n">
+      <c r="BN17" t="n">
         <v>1.96525620637209</v>
       </c>
-      <c r="BN17" t="n">
+      <c r="BO17" t="n">
         <v>1.968423961525037</v>
       </c>
-      <c r="BO17" t="n">
+      <c r="BP17" t="n">
         <v>1.993118149953191</v>
       </c>
-      <c r="BP17" t="n">
+      <c r="BQ17" t="n">
         <v>2.008614573388107</v>
       </c>
-      <c r="BQ17" t="n">
+      <c r="BR17" t="n">
         <v>1.897691620728189</v>
       </c>
-      <c r="BR17" t="n">
+      <c r="BS17" t="n">
         <v>1.915925987482666</v>
       </c>
-      <c r="BS17" t="n">
+      <c r="BT17" t="n">
         <v>1.907075053565145</v>
       </c>
-      <c r="BT17" t="n">
+      <c r="BU17" t="n">
         <v>1.857887196384403</v>
       </c>
-      <c r="BU17" t="n">
+      <c r="BV17" t="n">
         <v>1.914362781441449</v>
       </c>
-      <c r="BV17" t="n">
+      <c r="BW17" t="n">
         <v>1.889844712157269</v>
       </c>
-      <c r="BW17" t="n">
+      <c r="BX17" t="n">
         <v>1.866436496053881</v>
       </c>
-      <c r="BX17" t="n">
+      <c r="BY17" t="n">
         <v>1.862503816511385</v>
       </c>
-      <c r="BY17" t="n">
+      <c r="BZ17" t="n">
         <v>1.815580278424535</v>
       </c>
-      <c r="BZ17" t="n">
+      <c r="CA17" t="n">
         <v>1.750027410256582</v>
       </c>
-      <c r="CA17" t="n">
+      <c r="CB17" t="n">
         <v>1.856604326792184</v>
       </c>
-      <c r="CB17" t="n">
+      <c r="CC17" t="n">
         <v>1.779762810681714</v>
       </c>
-      <c r="CC17" t="n">
+      <c r="CD17" t="n">
         <v>1.721634269006666</v>
       </c>
-      <c r="CD17" t="n">
+      <c r="CE17" t="n">
         <v>1.728300660466628</v>
       </c>
-      <c r="CE17" t="n">
+      <c r="CF17" t="n">
         <v>1.63807605399621</v>
       </c>
-      <c r="CF17" t="n">
+      <c r="CG17" t="n">
         <v>1.701598312929742</v>
       </c>
-      <c r="CG17" t="n">
+      <c r="CH17" t="n">
         <v>1.691118823728984</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>1 квартал 2019</t>
-        </is>
+      <c r="A18" t="n">
+        <v>4.942004949863496</v>
       </c>
       <c r="B18" t="n">
-        <v>4.942004949863496</v>
+        <v>4.218942583195941</v>
       </c>
       <c r="C18" t="n">
-        <v>4.218942583195941</v>
+        <v>3.829186838221969</v>
       </c>
       <c r="D18" t="n">
-        <v>3.829186838221969</v>
+        <v>3.697311599622654</v>
       </c>
       <c r="E18" t="n">
-        <v>3.697311599622654</v>
+        <v>3.65361380940456</v>
       </c>
       <c r="F18" t="n">
-        <v>3.65361380940456</v>
+        <v>3.791091041726795</v>
       </c>
       <c r="G18" t="n">
-        <v>3.791091041726795</v>
+        <v>3.340687383398486</v>
       </c>
       <c r="H18" t="n">
-        <v>3.340687383398486</v>
+        <v>3.403421909348</v>
       </c>
       <c r="I18" t="n">
-        <v>3.403421909348</v>
+        <v>3.068597658841405</v>
       </c>
       <c r="J18" t="n">
-        <v>3.068597658841405</v>
+        <v>2.920547203512272</v>
       </c>
       <c r="K18" t="n">
-        <v>2.920547203512272</v>
+        <v>2.917399247962874</v>
       </c>
       <c r="L18" t="n">
-        <v>2.917399247962874</v>
-      </c>
-      <c r="M18" t="n">
         <v>3.005685348369554</v>
       </c>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
         <v>2.829885485207801</v>
       </c>
@@ -5175,136 +5128,127 @@
       <c r="BD18" t="n">
         <v>2.044526136400641</v>
       </c>
-      <c r="BE18" t="n">
+      <c r="BE18" t="inlineStr"/>
+      <c r="BF18" t="n">
         <v>2.037669285918423</v>
       </c>
-      <c r="BF18" t="n">
+      <c r="BG18" t="n">
         <v>2.164469010832889</v>
       </c>
-      <c r="BG18" t="n">
+      <c r="BH18" t="n">
         <v>2.036144658393763</v>
       </c>
-      <c r="BH18" t="n">
+      <c r="BI18" t="n">
         <v>1.995647599788935</v>
       </c>
-      <c r="BI18" t="n">
+      <c r="BJ18" t="n">
         <v>1.911529874749309</v>
       </c>
-      <c r="BJ18" t="n">
+      <c r="BK18" t="n">
         <v>1.978769935729588</v>
       </c>
-      <c r="BK18" t="n">
+      <c r="BL18" t="n">
         <v>1.948396074193596</v>
       </c>
-      <c r="BL18" t="n">
+      <c r="BM18" t="n">
         <v>1.926051249032488</v>
       </c>
-      <c r="BM18" t="n">
+      <c r="BN18" t="n">
         <v>1.951010165299776</v>
       </c>
-      <c r="BN18" t="n">
+      <c r="BO18" t="n">
         <v>1.95443704837504</v>
       </c>
-      <c r="BO18" t="n">
+      <c r="BP18" t="n">
         <v>1.990857992221717</v>
       </c>
-      <c r="BP18" t="n">
+      <c r="BQ18" t="n">
         <v>1.950957580096653</v>
       </c>
-      <c r="BQ18" t="n">
+      <c r="BR18" t="n">
         <v>1.921459408711919</v>
       </c>
-      <c r="BR18" t="n">
+      <c r="BS18" t="n">
         <v>1.896611335339867</v>
       </c>
-      <c r="BS18" t="n">
+      <c r="BT18" t="n">
         <v>1.921454876648319</v>
       </c>
-      <c r="BT18" t="n">
+      <c r="BU18" t="n">
         <v>1.826106667530196</v>
       </c>
-      <c r="BU18" t="n">
+      <c r="BV18" t="n">
         <v>1.90430185729948</v>
       </c>
-      <c r="BV18" t="n">
+      <c r="BW18" t="n">
         <v>1.881516490850523</v>
       </c>
-      <c r="BW18" t="n">
+      <c r="BX18" t="n">
         <v>1.872990046274567</v>
       </c>
-      <c r="BX18" t="n">
+      <c r="BY18" t="n">
         <v>1.841547953041157</v>
       </c>
-      <c r="BY18" t="n">
+      <c r="BZ18" t="n">
         <v>1.755846451101612</v>
       </c>
-      <c r="BZ18" t="n">
+      <c r="CA18" t="n">
         <v>1.77869187718849</v>
       </c>
-      <c r="CA18" t="n">
+      <c r="CB18" t="n">
         <v>1.871129722792127</v>
       </c>
-      <c r="CB18" t="n">
+      <c r="CC18" t="n">
         <v>1.723513763975652</v>
       </c>
-      <c r="CC18" t="n">
+      <c r="CD18" t="n">
         <v>1.746894517937376</v>
       </c>
-      <c r="CD18" t="n">
+      <c r="CE18" t="n">
         <v>1.746315603463509</v>
       </c>
-      <c r="CE18" t="n">
+      <c r="CF18" t="n">
         <v>1.663107003475526</v>
       </c>
-      <c r="CF18" t="n">
+      <c r="CG18" t="n">
         <v>1.673100564305288</v>
       </c>
-      <c r="CG18" t="n">
+      <c r="CH18" t="n">
         <v>1.677463405446131</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2 квартал 2019</t>
-        </is>
-      </c>
+      <c r="A19" t="inlineStr"/>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>4.365385123065146</v>
       </c>
       <c r="C19" t="n">
-        <v>4.365385123065146</v>
-      </c>
-      <c r="D19" t="n">
         <v>3.933658852307663</v>
       </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>3.886683622819794</v>
       </c>
       <c r="F19" t="n">
-        <v>3.886683622819794</v>
+        <v>3.804234599249447</v>
       </c>
       <c r="G19" t="n">
-        <v>3.804234599249447</v>
+        <v>3.397374389392882</v>
       </c>
       <c r="H19" t="n">
-        <v>3.397374389392882</v>
+        <v>3.454008316815109</v>
       </c>
       <c r="I19" t="n">
-        <v>3.454008316815109</v>
+        <v>3.149128764564807</v>
       </c>
       <c r="J19" t="n">
-        <v>3.149128764564807</v>
+        <v>2.97057565981265</v>
       </c>
       <c r="K19" t="n">
-        <v>2.97057565981265</v>
-      </c>
-      <c r="L19" t="n">
         <v>2.988519849599081</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
         <v>2.926974517872415</v>
       </c>
@@ -5338,9 +5282,7 @@
       <c r="X19" t="n">
         <v>2.54380533638499</v>
       </c>
-      <c r="Y19" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="n">
         <v>2.499371907326292</v>
       </c>
@@ -5434,136 +5376,125 @@
       <c r="BD19" t="n">
         <v>2.02437750802927</v>
       </c>
-      <c r="BE19" t="n">
+      <c r="BE19" t="inlineStr"/>
+      <c r="BF19" t="n">
         <v>2.058586847074903</v>
       </c>
-      <c r="BF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG19" t="n">
+      <c r="BG19" t="inlineStr"/>
+      <c r="BH19" t="n">
         <v>2.064591858003225</v>
       </c>
-      <c r="BH19" t="n">
+      <c r="BI19" t="n">
         <v>2.02821076831993</v>
       </c>
-      <c r="BI19" t="n">
+      <c r="BJ19" t="n">
         <v>2.003999310980131</v>
       </c>
-      <c r="BJ19" t="n">
+      <c r="BK19" t="n">
         <v>2.017388871711059</v>
       </c>
-      <c r="BK19" t="n">
+      <c r="BL19" t="n">
         <v>1.951291473325645</v>
       </c>
-      <c r="BL19" t="n">
+      <c r="BM19" t="n">
         <v>1.951681017317527</v>
       </c>
-      <c r="BM19" t="n">
+      <c r="BN19" t="n">
         <v>1.978013537516202</v>
       </c>
-      <c r="BN19" t="n">
+      <c r="BO19" t="n">
         <v>1.994106413802186</v>
       </c>
-      <c r="BO19" t="n">
+      <c r="BP19" t="n">
         <v>2.157666007628388</v>
       </c>
-      <c r="BP19" t="n">
+      <c r="BQ19" t="n">
         <v>1.929171254928003</v>
       </c>
-      <c r="BQ19" t="n">
+      <c r="BR19" t="n">
         <v>1.941456310456593</v>
       </c>
-      <c r="BR19" t="n">
+      <c r="BS19" t="n">
         <v>1.901426087454295</v>
       </c>
-      <c r="BS19" t="n">
+      <c r="BT19" t="n">
         <v>1.931439760683909</v>
       </c>
-      <c r="BT19" t="n">
+      <c r="BU19" t="n">
         <v>1.875380004281739</v>
       </c>
-      <c r="BU19" t="n">
+      <c r="BV19" t="n">
         <v>1.911354170888294</v>
       </c>
-      <c r="BV19" t="n">
+      <c r="BW19" t="n">
         <v>1.917303733202392</v>
       </c>
-      <c r="BW19" t="n">
+      <c r="BX19" t="n">
         <v>1.918112109569662</v>
       </c>
-      <c r="BX19" t="n">
+      <c r="BY19" t="n">
         <v>1.869528736612091</v>
       </c>
-      <c r="BY19" t="n">
+      <c r="BZ19" t="n">
         <v>1.776040270317744</v>
       </c>
-      <c r="BZ19" t="n">
+      <c r="CA19" t="n">
         <v>1.812588829815234</v>
       </c>
-      <c r="CA19" t="n">
+      <c r="CB19" t="n">
         <v>1.885426626223996</v>
       </c>
-      <c r="CB19" t="n">
+      <c r="CC19" t="n">
         <v>1.736366037237554</v>
       </c>
-      <c r="CC19" t="n">
+      <c r="CD19" t="n">
         <v>1.772474603577811</v>
       </c>
-      <c r="CD19" t="n">
+      <c r="CE19" t="n">
         <v>1.788548931646397</v>
       </c>
-      <c r="CE19" t="n">
+      <c r="CF19" t="n">
         <v>1.671991775586117</v>
       </c>
-      <c r="CF19" t="n">
+      <c r="CG19" t="n">
         <v>1.678817299590953</v>
       </c>
-      <c r="CG19" t="n">
+      <c r="CH19" t="n">
         <v>1.682529415044889</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>3 квартал 2019</t>
-        </is>
-      </c>
+      <c r="A20" t="inlineStr"/>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>4.41152466750078</v>
       </c>
       <c r="C20" t="n">
-        <v>4.41152466750078</v>
-      </c>
-      <c r="D20" t="n">
         <v>4.104585820462972</v>
       </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3.959733776075713</v>
       </c>
       <c r="F20" t="n">
-        <v>3.959733776075713</v>
+        <v>3.972473400504452</v>
       </c>
       <c r="G20" t="n">
-        <v>3.972473400504452</v>
+        <v>3.514576942305105</v>
       </c>
       <c r="H20" t="n">
-        <v>3.514576942305105</v>
+        <v>3.507073107763333</v>
       </c>
       <c r="I20" t="n">
-        <v>3.507073107763333</v>
+        <v>3.267804304649183</v>
       </c>
       <c r="J20" t="n">
-        <v>3.267804304649183</v>
+        <v>3.052462692337431</v>
       </c>
       <c r="K20" t="n">
-        <v>3.052462692337431</v>
-      </c>
-      <c r="L20" t="n">
         <v>3.053658242786186</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="n">
         <v>2.997739238085519</v>
       </c>
@@ -5597,9 +5528,7 @@
       <c r="X20" t="n">
         <v>2.594079614027439</v>
       </c>
-      <c r="Y20" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="n">
         <v>2.569763223240142</v>
       </c>
@@ -5693,136 +5622,125 @@
       <c r="BD20" t="n">
         <v>2.088984240094759</v>
       </c>
-      <c r="BE20" t="n">
+      <c r="BE20" t="inlineStr"/>
+      <c r="BF20" t="n">
         <v>2.121330511256422</v>
       </c>
-      <c r="BF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG20" t="n">
+      <c r="BG20" t="inlineStr"/>
+      <c r="BH20" t="n">
         <v>2.13846560963239</v>
       </c>
-      <c r="BH20" t="n">
+      <c r="BI20" t="n">
         <v>2.092121327161427</v>
       </c>
-      <c r="BI20" t="n">
+      <c r="BJ20" t="n">
         <v>2.055761544518534</v>
       </c>
-      <c r="BJ20" t="n">
+      <c r="BK20" t="n">
         <v>2.106408188951602</v>
       </c>
-      <c r="BK20" t="n">
+      <c r="BL20" t="n">
         <v>2.010287850758096</v>
       </c>
-      <c r="BL20" t="n">
+      <c r="BM20" t="n">
         <v>2.012652982166908</v>
       </c>
-      <c r="BM20" t="n">
+      <c r="BN20" t="n">
         <v>2.051089856266374</v>
       </c>
-      <c r="BN20" t="n">
+      <c r="BO20" t="n">
         <v>2.06767616594341</v>
       </c>
-      <c r="BO20" t="n">
+      <c r="BP20" t="n">
         <v>2.16969757032192</v>
       </c>
-      <c r="BP20" t="n">
+      <c r="BQ20" t="n">
         <v>1.992383462556234</v>
       </c>
-      <c r="BQ20" t="n">
+      <c r="BR20" t="n">
         <v>2.005298974184721</v>
       </c>
-      <c r="BR20" t="n">
+      <c r="BS20" t="n">
         <v>1.959874569543325</v>
       </c>
-      <c r="BS20" t="n">
+      <c r="BT20" t="n">
         <v>2.002332152699226</v>
       </c>
-      <c r="BT20" t="n">
+      <c r="BU20" t="n">
         <v>1.962825802814014</v>
       </c>
-      <c r="BU20" t="n">
+      <c r="BV20" t="n">
         <v>1.99669040938197</v>
       </c>
-      <c r="BV20" t="n">
+      <c r="BW20" t="n">
         <v>1.980373428297248</v>
       </c>
-      <c r="BW20" t="n">
+      <c r="BX20" t="n">
         <v>1.981100662510191</v>
       </c>
-      <c r="BX20" t="n">
+      <c r="BY20" t="n">
         <v>1.951399643710779</v>
       </c>
-      <c r="BY20" t="n">
+      <c r="BZ20" t="n">
         <v>1.830604588677729</v>
       </c>
-      <c r="BZ20" t="n">
+      <c r="CA20" t="n">
         <v>1.869858299373982</v>
       </c>
-      <c r="CA20" t="n">
+      <c r="CB20" t="n">
         <v>1.964551059445526</v>
       </c>
-      <c r="CB20" t="n">
+      <c r="CC20" t="n">
         <v>1.799405503042632</v>
       </c>
-      <c r="CC20" t="n">
+      <c r="CD20" t="n">
         <v>1.864796809401946</v>
       </c>
-      <c r="CD20" t="n">
+      <c r="CE20" t="n">
         <v>1.851881315996977</v>
       </c>
-      <c r="CE20" t="n">
+      <c r="CF20" t="n">
         <v>1.697319258533754</v>
       </c>
-      <c r="CF20" t="n">
+      <c r="CG20" t="n">
         <v>1.733135675491302</v>
       </c>
-      <c r="CG20" t="n">
+      <c r="CH20" t="n">
         <v>1.764131940073021</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4 квартал 2019</t>
-        </is>
-      </c>
+      <c r="A21" t="inlineStr"/>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>4.386670730820255</v>
       </c>
       <c r="C21" t="n">
-        <v>4.386670730820255</v>
-      </c>
-      <c r="D21" t="n">
         <v>4.064252249287862</v>
       </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>3.932488447849255</v>
       </c>
       <c r="F21" t="n">
-        <v>3.932488447849255</v>
+        <v>3.95184855517526</v>
       </c>
       <c r="G21" t="n">
-        <v>3.95184855517526</v>
+        <v>3.463958843201401</v>
       </c>
       <c r="H21" t="n">
-        <v>3.463958843201401</v>
+        <v>3.516515649875485</v>
       </c>
       <c r="I21" t="n">
-        <v>3.516515649875485</v>
+        <v>3.225926563416597</v>
       </c>
       <c r="J21" t="n">
-        <v>3.225926563416597</v>
+        <v>3.044144177456362</v>
       </c>
       <c r="K21" t="n">
-        <v>3.044144177456362</v>
-      </c>
-      <c r="L21" t="n">
         <v>3.060930097138773</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
       <c r="N21" t="n">
         <v>2.983895816015517</v>
       </c>
@@ -5856,9 +5774,7 @@
       <c r="X21" t="n">
         <v>2.628023676279635</v>
       </c>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="n">
         <v>2.562645367495555</v>
       </c>
@@ -5952,136 +5868,125 @@
       <c r="BD21" t="n">
         <v>2.131156927393227</v>
       </c>
-      <c r="BE21" t="n">
+      <c r="BE21" t="inlineStr"/>
+      <c r="BF21" t="n">
         <v>2.137445494918233</v>
       </c>
-      <c r="BF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG21" t="n">
+      <c r="BG21" t="inlineStr"/>
+      <c r="BH21" t="n">
         <v>2.15273284559991</v>
       </c>
-      <c r="BH21" t="n">
+      <c r="BI21" t="n">
         <v>2.1099546234739</v>
       </c>
-      <c r="BI21" t="n">
+      <c r="BJ21" t="n">
         <v>1.995872990798152</v>
       </c>
-      <c r="BJ21" t="n">
+      <c r="BK21" t="n">
         <v>2.124014711022927</v>
       </c>
-      <c r="BK21" t="n">
+      <c r="BL21" t="n">
         <v>2.051130820290132</v>
       </c>
-      <c r="BL21" t="n">
+      <c r="BM21" t="n">
         <v>2.026848402268829</v>
       </c>
-      <c r="BM21" t="n">
+      <c r="BN21" t="n">
         <v>2.071899969444198</v>
       </c>
-      <c r="BN21" t="n">
+      <c r="BO21" t="n">
         <v>2.067525947972197</v>
       </c>
-      <c r="BO21" t="n">
+      <c r="BP21" t="n">
         <v>2.152162288775215</v>
       </c>
-      <c r="BP21" t="n">
+      <c r="BQ21" t="n">
         <v>2.020508040083896</v>
       </c>
-      <c r="BQ21" t="n">
+      <c r="BR21" t="n">
         <v>2.031489454440913</v>
       </c>
-      <c r="BR21" t="n">
+      <c r="BS21" t="n">
         <v>1.983274704417504</v>
       </c>
-      <c r="BS21" t="n">
+      <c r="BT21" t="n">
         <v>2.020676133325412</v>
       </c>
-      <c r="BT21" t="n">
+      <c r="BU21" t="n">
         <v>1.966992667629611</v>
       </c>
-      <c r="BU21" t="n">
+      <c r="BV21" t="n">
         <v>1.982530388697655</v>
       </c>
-      <c r="BV21" t="n">
+      <c r="BW21" t="n">
         <v>1.992778083052045</v>
       </c>
-      <c r="BW21" t="n">
+      <c r="BX21" t="n">
         <v>1.984416038015492</v>
       </c>
-      <c r="BX21" t="n">
+      <c r="BY21" t="n">
         <v>1.959720139257845</v>
       </c>
-      <c r="BY21" t="n">
+      <c r="BZ21" t="n">
         <v>1.852331606217617</v>
       </c>
-      <c r="BZ21" t="n">
+      <c r="CA21" t="n">
         <v>1.900616138305554</v>
       </c>
-      <c r="CA21" t="n">
+      <c r="CB21" t="n">
         <v>1.958154241391236</v>
       </c>
-      <c r="CB21" t="n">
+      <c r="CC21" t="n">
         <v>1.792269540084351</v>
       </c>
-      <c r="CC21" t="n">
+      <c r="CD21" t="n">
         <v>1.845756746895941</v>
       </c>
-      <c r="CD21" t="n">
+      <c r="CE21" t="n">
         <v>1.822280564226971</v>
       </c>
-      <c r="CE21" t="n">
+      <c r="CF21" t="n">
         <v>1.719365906401382</v>
       </c>
-      <c r="CF21" t="n">
+      <c r="CG21" t="n">
         <v>1.748769177610366</v>
       </c>
-      <c r="CG21" t="n">
+      <c r="CH21" t="n">
         <v>1.763742170334911</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>1 квартал 2020</t>
-        </is>
-      </c>
+      <c r="A22" t="inlineStr"/>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>4.517703334642237</v>
       </c>
       <c r="C22" t="n">
-        <v>4.517703334642237</v>
-      </c>
-      <c r="D22" t="n">
         <v>4.063495763253866</v>
       </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>3.980101966120378</v>
       </c>
       <c r="F22" t="n">
-        <v>3.980101966120378</v>
+        <v>3.944646964370959</v>
       </c>
       <c r="G22" t="n">
-        <v>3.944646964370959</v>
+        <v>3.451685665777346</v>
       </c>
       <c r="H22" t="n">
-        <v>3.451685665777346</v>
+        <v>3.56388994121031</v>
       </c>
       <c r="I22" t="n">
-        <v>3.56388994121031</v>
+        <v>3.305683836126533</v>
       </c>
       <c r="J22" t="n">
-        <v>3.305683836126533</v>
+        <v>3.011305475307659</v>
       </c>
       <c r="K22" t="n">
-        <v>3.011305475307659</v>
-      </c>
-      <c r="L22" t="n">
         <v>3.075994972300061</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
       <c r="N22" t="n">
         <v>2.977764403420056</v>
       </c>
@@ -6115,9 +6020,7 @@
       <c r="X22" t="n">
         <v>2.647616612329263</v>
       </c>
-      <c r="Y22" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="n">
         <v>2.602973646493731</v>
       </c>
@@ -6211,136 +6114,125 @@
       <c r="BD22" t="n">
         <v>2.222913437577982</v>
       </c>
-      <c r="BE22" t="n">
+      <c r="BE22" t="inlineStr"/>
+      <c r="BF22" t="n">
         <v>2.141301197331031</v>
       </c>
-      <c r="BF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG22" t="n">
+      <c r="BG22" t="inlineStr"/>
+      <c r="BH22" t="n">
         <v>2.16414913462535</v>
       </c>
-      <c r="BH22" t="n">
+      <c r="BI22" t="n">
         <v>2.113951859398879</v>
       </c>
-      <c r="BI22" t="n">
+      <c r="BJ22" t="n">
         <v>2.041805457482874</v>
       </c>
-      <c r="BJ22" t="n">
+      <c r="BK22" t="n">
         <v>2.140449192242021</v>
       </c>
-      <c r="BK22" t="n">
+      <c r="BL22" t="n">
         <v>2.070570143793136</v>
       </c>
-      <c r="BL22" t="n">
+      <c r="BM22" t="n">
         <v>2.019745426463931</v>
       </c>
-      <c r="BM22" t="n">
+      <c r="BN22" t="n">
         <v>2.098601528728064</v>
       </c>
-      <c r="BN22" t="n">
+      <c r="BO22" t="n">
         <v>2.061045905965692</v>
       </c>
-      <c r="BO22" t="n">
+      <c r="BP22" t="n">
         <v>2.0574310174404</v>
       </c>
-      <c r="BP22" t="n">
+      <c r="BQ22" t="n">
         <v>2.025770760387625</v>
       </c>
-      <c r="BQ22" t="n">
+      <c r="BR22" t="n">
         <v>2.033789811302767</v>
       </c>
-      <c r="BR22" t="n">
+      <c r="BS22" t="n">
         <v>1.997956506828732</v>
       </c>
-      <c r="BS22" t="n">
+      <c r="BT22" t="n">
         <v>2.035254263864706</v>
       </c>
-      <c r="BT22" t="n">
+      <c r="BU22" t="n">
         <v>1.955223275413037</v>
       </c>
-      <c r="BU22" t="n">
+      <c r="BV22" t="n">
         <v>2.006080966150706</v>
       </c>
-      <c r="BV22" t="n">
+      <c r="BW22" t="n">
         <v>2.033278772481247</v>
       </c>
-      <c r="BW22" t="n">
+      <c r="BX22" t="n">
         <v>2.017037329592657</v>
       </c>
-      <c r="BX22" t="n">
+      <c r="BY22" t="n">
         <v>1.980503709618392</v>
       </c>
-      <c r="BY22" t="n">
+      <c r="BZ22" t="n">
         <v>1.847833393834281</v>
       </c>
-      <c r="BZ22" t="n">
+      <c r="CA22" t="n">
         <v>1.920846822118762</v>
       </c>
-      <c r="CA22" t="n">
+      <c r="CB22" t="n">
         <v>1.985891400112021</v>
       </c>
-      <c r="CB22" t="n">
+      <c r="CC22" t="n">
         <v>1.824429021589104</v>
       </c>
-      <c r="CC22" t="n">
+      <c r="CD22" t="n">
         <v>1.872692672364519</v>
       </c>
-      <c r="CD22" t="n">
+      <c r="CE22" t="n">
         <v>1.844957055885428</v>
       </c>
-      <c r="CE22" t="n">
+      <c r="CF22" t="n">
         <v>1.750873898507235</v>
       </c>
-      <c r="CF22" t="n">
+      <c r="CG22" t="n">
         <v>1.756653370823253</v>
       </c>
-      <c r="CG22" t="n">
+      <c r="CH22" t="n">
         <v>1.838628382004307</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2 квартал 2020</t>
-        </is>
-      </c>
+      <c r="A23" t="inlineStr"/>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>4.497607335162215</v>
       </c>
       <c r="C23" t="n">
-        <v>4.497607335162215</v>
-      </c>
-      <c r="D23" t="n">
         <v>4.138702419111088</v>
       </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>4.106619211026348</v>
       </c>
       <c r="F23" t="n">
-        <v>4.106619211026348</v>
+        <v>3.979203112052298</v>
       </c>
       <c r="G23" t="n">
-        <v>3.979203112052298</v>
+        <v>3.518342882213276</v>
       </c>
       <c r="H23" t="n">
-        <v>3.518342882213276</v>
+        <v>3.628923991236045</v>
       </c>
       <c r="I23" t="n">
-        <v>3.628923991236045</v>
+        <v>3.337603083771821</v>
       </c>
       <c r="J23" t="n">
-        <v>3.337603083771821</v>
+        <v>3.023494702864378</v>
       </c>
       <c r="K23" t="n">
-        <v>3.023494702864378</v>
-      </c>
-      <c r="L23" t="n">
         <v>3.027781842124517</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
       <c r="N23" t="n">
         <v>3.028570204287137</v>
       </c>
@@ -6374,9 +6266,7 @@
       <c r="X23" t="n">
         <v>2.630912672235179</v>
       </c>
-      <c r="Y23" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="n">
         <v>2.628491395882359</v>
       </c>
@@ -6470,136 +6360,125 @@
       <c r="BD23" t="n">
         <v>2.195240407965033</v>
       </c>
-      <c r="BE23" t="n">
+      <c r="BE23" t="inlineStr"/>
+      <c r="BF23" t="n">
         <v>2.146733538338517</v>
       </c>
-      <c r="BF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG23" t="n">
+      <c r="BG23" t="inlineStr"/>
+      <c r="BH23" t="n">
         <v>2.167874101839865</v>
       </c>
-      <c r="BH23" t="n">
+      <c r="BI23" t="n">
         <v>2.104542537558346</v>
       </c>
-      <c r="BI23" t="n">
+      <c r="BJ23" t="n">
         <v>2.051702245949838</v>
       </c>
-      <c r="BJ23" t="n">
+      <c r="BK23" t="n">
         <v>2.137750670522769</v>
       </c>
-      <c r="BK23" t="n">
+      <c r="BL23" t="n">
         <v>2.094787431036787</v>
       </c>
-      <c r="BL23" t="n">
+      <c r="BM23" t="n">
         <v>2.009939704637586</v>
       </c>
-      <c r="BM23" t="n">
+      <c r="BN23" t="n">
         <v>2.094623906705539</v>
       </c>
-      <c r="BN23" t="n">
+      <c r="BO23" t="n">
         <v>2.046770358808689</v>
       </c>
-      <c r="BO23" t="n">
+      <c r="BP23" t="n">
         <v>2.014078553422065</v>
       </c>
-      <c r="BP23" t="n">
+      <c r="BQ23" t="n">
         <v>2.011224832077494</v>
       </c>
-      <c r="BQ23" t="n">
+      <c r="BR23" t="n">
         <v>2.039648272839909</v>
       </c>
-      <c r="BR23" t="n">
+      <c r="BS23" t="n">
         <v>2.003508723268521</v>
       </c>
-      <c r="BS23" t="n">
+      <c r="BT23" t="n">
         <v>2.002711305463833</v>
       </c>
-      <c r="BT23" t="n">
+      <c r="BU23" t="n">
         <v>1.930384603578993</v>
       </c>
-      <c r="BU23" t="n">
+      <c r="BV23" t="n">
         <v>1.990927605998889</v>
       </c>
-      <c r="BV23" t="n">
+      <c r="BW23" t="n">
         <v>2.044953559281764</v>
       </c>
-      <c r="BW23" t="n">
+      <c r="BX23" t="n">
         <v>2.032196216363579</v>
       </c>
-      <c r="BX23" t="n">
+      <c r="BY23" t="n">
         <v>1.994510780991943</v>
       </c>
-      <c r="BY23" t="n">
+      <c r="BZ23" t="n">
         <v>1.842310111134077</v>
       </c>
-      <c r="BZ23" t="n">
+      <c r="CA23" t="n">
         <v>1.930579996948855</v>
       </c>
-      <c r="CA23" t="n">
+      <c r="CB23" t="n">
         <v>1.997242477728848</v>
       </c>
-      <c r="CB23" t="n">
+      <c r="CC23" t="n">
         <v>1.844624752477349</v>
       </c>
-      <c r="CC23" t="n">
+      <c r="CD23" t="n">
         <v>1.831216732557369</v>
       </c>
-      <c r="CD23" t="n">
+      <c r="CE23" t="n">
         <v>1.854678846356757</v>
       </c>
-      <c r="CE23" t="n">
+      <c r="CF23" t="n">
         <v>1.752029504873946</v>
       </c>
-      <c r="CF23" t="n">
+      <c r="CG23" t="n">
         <v>1.735281779969353</v>
       </c>
-      <c r="CG23" t="n">
+      <c r="CH23" t="n">
         <v>1.852401265017637</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>3 квартал 2020</t>
-        </is>
-      </c>
+      <c r="A24" t="inlineStr"/>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>4.474778488478779</v>
       </c>
       <c r="C24" t="n">
-        <v>4.474778488478779</v>
-      </c>
-      <c r="D24" t="n">
         <v>4.264169027323174</v>
       </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>4.074366200345811</v>
       </c>
       <c r="F24" t="n">
-        <v>4.074366200345811</v>
+        <v>4.073990182851082</v>
       </c>
       <c r="G24" t="n">
-        <v>4.073990182851082</v>
+        <v>3.523739861134029</v>
       </c>
       <c r="H24" t="n">
-        <v>3.523739861134029</v>
+        <v>3.624577051811723</v>
       </c>
       <c r="I24" t="n">
-        <v>3.624577051811723</v>
+        <v>3.422505818542774</v>
       </c>
       <c r="J24" t="n">
-        <v>3.422505818542774</v>
+        <v>3.095597585690045</v>
       </c>
       <c r="K24" t="n">
-        <v>3.095597585690045</v>
-      </c>
-      <c r="L24" t="n">
         <v>3.006586713595643</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
       <c r="N24" t="n">
         <v>3.101491083072197</v>
       </c>
@@ -6633,9 +6512,7 @@
       <c r="X24" t="n">
         <v>2.620713769766232</v>
       </c>
-      <c r="Y24" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="n">
         <v>2.677289674852631</v>
       </c>
@@ -6729,136 +6606,125 @@
       <c r="BD24" t="n">
         <v>2.179474622867776</v>
       </c>
-      <c r="BE24" t="n">
+      <c r="BE24" t="inlineStr"/>
+      <c r="BF24" t="n">
         <v>2.148719136914207</v>
       </c>
-      <c r="BF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG24" t="n">
+      <c r="BG24" t="inlineStr"/>
+      <c r="BH24" t="n">
         <v>2.196101038512381</v>
       </c>
-      <c r="BH24" t="n">
+      <c r="BI24" t="n">
         <v>2.12898211283441</v>
       </c>
-      <c r="BI24" t="n">
+      <c r="BJ24" t="n">
         <v>2.138605380799084</v>
       </c>
-      <c r="BJ24" t="n">
+      <c r="BK24" t="n">
         <v>2.164089442389536</v>
       </c>
-      <c r="BK24" t="n">
+      <c r="BL24" t="n">
         <v>2.136769322114485</v>
       </c>
-      <c r="BL24" t="n">
+      <c r="BM24" t="n">
         <v>2.051514876358243</v>
       </c>
-      <c r="BM24" t="n">
+      <c r="BN24" t="n">
         <v>2.140412343972804</v>
       </c>
-      <c r="BN24" t="n">
+      <c r="BO24" t="n">
         <v>2.076346260536536</v>
       </c>
-      <c r="BO24" t="n">
+      <c r="BP24" t="n">
         <v>1.996481685337478</v>
       </c>
-      <c r="BP24" t="n">
+      <c r="BQ24" t="n">
         <v>2.037533839483809</v>
       </c>
-      <c r="BQ24" t="n">
+      <c r="BR24" t="n">
         <v>2.091409233019955</v>
       </c>
-      <c r="BR24" t="n">
+      <c r="BS24" t="n">
         <v>2.040589240004945</v>
       </c>
-      <c r="BS24" t="n">
+      <c r="BT24" t="n">
         <v>2.036633627802511</v>
       </c>
-      <c r="BT24" t="n">
+      <c r="BU24" t="n">
         <v>1.96864640380809</v>
       </c>
-      <c r="BU24" t="n">
+      <c r="BV24" t="n">
         <v>2.043451104923711</v>
       </c>
-      <c r="BV24" t="n">
+      <c r="BW24" t="n">
         <v>2.095502639152853</v>
       </c>
-      <c r="BW24" t="n">
+      <c r="BX24" t="n">
         <v>2.062864592540216</v>
       </c>
-      <c r="BX24" t="n">
+      <c r="BY24" t="n">
         <v>2.020985489995666</v>
       </c>
-      <c r="BY24" t="n">
+      <c r="BZ24" t="n">
         <v>1.875845950968572</v>
       </c>
-      <c r="BZ24" t="n">
+      <c r="CA24" t="n">
         <v>1.95989122758049</v>
       </c>
-      <c r="CA24" t="n">
+      <c r="CB24" t="n">
         <v>2.070226026764932</v>
       </c>
-      <c r="CB24" t="n">
+      <c r="CC24" t="n">
         <v>1.948800176229743</v>
       </c>
-      <c r="CC24" t="n">
+      <c r="CD24" t="n">
         <v>1.918789406204712</v>
       </c>
-      <c r="CD24" t="n">
+      <c r="CE24" t="n">
         <v>1.941185783442557</v>
       </c>
-      <c r="CE24" t="n">
+      <c r="CF24" t="n">
         <v>1.804100749375521</v>
       </c>
-      <c r="CF24" t="n">
+      <c r="CG24" t="n">
         <v>1.748693914530783</v>
       </c>
-      <c r="CG24" t="n">
+      <c r="CH24" t="n">
         <v>1.915033617805845</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>4 квартал 2020</t>
-        </is>
-      </c>
+      <c r="A25" t="inlineStr"/>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>4.419506908608259</v>
       </c>
       <c r="C25" t="n">
-        <v>4.419506908608259</v>
-      </c>
-      <c r="D25" t="n">
         <v>4.120617186864441</v>
       </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>4.017266669460626</v>
       </c>
       <c r="F25" t="n">
-        <v>4.017266669460626</v>
+        <v>4.08828511158114</v>
       </c>
       <c r="G25" t="n">
-        <v>4.08828511158114</v>
+        <v>3.45125426922624</v>
       </c>
       <c r="H25" t="n">
-        <v>3.45125426922624</v>
+        <v>3.5980724854079</v>
       </c>
       <c r="I25" t="n">
-        <v>3.5980724854079</v>
+        <v>3.359880700857232</v>
       </c>
       <c r="J25" t="n">
-        <v>3.359880700857232</v>
+        <v>3.055964627093622</v>
       </c>
       <c r="K25" t="n">
-        <v>3.055964627093622</v>
-      </c>
-      <c r="L25" t="n">
         <v>2.980199494890569</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
       <c r="N25" t="n">
         <v>3.069373001235216</v>
       </c>
@@ -6892,9 +6758,7 @@
       <c r="X25" t="n">
         <v>2.595754311320327</v>
       </c>
-      <c r="Y25" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="n">
         <v>2.623712761666433</v>
       </c>
@@ -6988,92 +6852,347 @@
       <c r="BD25" t="n">
         <v>2.151140654605395</v>
       </c>
-      <c r="BE25" t="n">
+      <c r="BE25" t="inlineStr"/>
+      <c r="BF25" t="n">
         <v>2.111535613172979</v>
       </c>
-      <c r="BF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG25" t="n">
+      <c r="BG25" t="inlineStr"/>
+      <c r="BH25" t="n">
         <v>2.155209196094671</v>
       </c>
-      <c r="BH25" t="n">
+      <c r="BI25" t="n">
         <v>2.093581418073001</v>
       </c>
-      <c r="BI25" t="n">
+      <c r="BJ25" t="n">
         <v>2.102270713257761</v>
       </c>
-      <c r="BJ25" t="n">
+      <c r="BK25" t="n">
         <v>2.150043805365114</v>
       </c>
-      <c r="BK25" t="n">
+      <c r="BL25" t="n">
         <v>2.130429814661083</v>
       </c>
-      <c r="BL25" t="n">
+      <c r="BM25" t="n">
         <v>2.029484935630278</v>
       </c>
-      <c r="BM25" t="n">
+      <c r="BN25" t="n">
         <v>2.122953822202889</v>
       </c>
-      <c r="BN25" t="n">
+      <c r="BO25" t="n">
         <v>2.065479809522965</v>
       </c>
-      <c r="BO25" t="n">
+      <c r="BP25" t="n">
         <v>1.976399517741295</v>
       </c>
-      <c r="BP25" t="n">
+      <c r="BQ25" t="n">
         <v>2.02058731003775</v>
       </c>
-      <c r="BQ25" t="n">
+      <c r="BR25" t="n">
         <v>2.079107571388404</v>
       </c>
-      <c r="BR25" t="n">
+      <c r="BS25" t="n">
         <v>2.024579779269788</v>
       </c>
-      <c r="BS25" t="n">
+      <c r="BT25" t="n">
         <v>2.013528588141974</v>
       </c>
-      <c r="BT25" t="n">
+      <c r="BU25" t="n">
         <v>1.944783131908066</v>
       </c>
-      <c r="BU25" t="n">
+      <c r="BV25" t="n">
         <v>1.997513473373912</v>
       </c>
-      <c r="BV25" t="n">
+      <c r="BW25" t="n">
         <v>2.057951170097694</v>
       </c>
-      <c r="BW25" t="n">
+      <c r="BX25" t="n">
         <v>2.023885620360828</v>
       </c>
-      <c r="BX25" t="n">
+      <c r="BY25" t="n">
         <v>2.00266028822274</v>
       </c>
-      <c r="BY25" t="n">
+      <c r="BZ25" t="n">
         <v>1.857465728285996</v>
       </c>
-      <c r="BZ25" t="n">
+      <c r="CA25" t="n">
         <v>1.942971420657122</v>
       </c>
-      <c r="CA25" t="n">
+      <c r="CB25" t="n">
         <v>2.045735933095576</v>
       </c>
-      <c r="CB25" t="n">
+      <c r="CC25" t="n">
         <v>1.920482779412223</v>
       </c>
-      <c r="CC25" t="n">
+      <c r="CD25" t="n">
         <v>1.879154980783214</v>
       </c>
-      <c r="CD25" t="n">
+      <c r="CE25" t="n">
         <v>1.902865824907005</v>
       </c>
-      <c r="CE25" t="n">
+      <c r="CF25" t="n">
         <v>1.783084348331284</v>
       </c>
-      <c r="CF25" t="n">
+      <c r="CG25" t="n">
         <v>1.715399752356572</v>
       </c>
-      <c r="CG25" t="n">
+      <c r="CH25" t="n">
         <v>1.882630176168498</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>4.697343380092069</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3.967150215184534</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.87460411540152</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3.723598633090513</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3.608126480867891</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3.549419612788348</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3.282738524210345</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.275761927057792</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.000114603134724</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.895471463236298</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.837111739337578</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2.784509657756945</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
+        <v>2.772659476401025</v>
+      </c>
+      <c r="O26" t="n">
+        <v>2.74971457539971</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.70840093320934</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.682222397084825</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2.670291194881615</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2.653371045276984</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.61716029716729</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.55179791965715</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2.53988137151858</v>
+      </c>
+      <c r="W26" t="n">
+        <v>2.501455185364821</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2.482261871929363</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>2.477419642694274</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>2.468066262846427</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>2.430017360367043</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>2.434020034800123</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>2.432584582742466</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>2.40144043776629</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>2.350525085184628</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>2.311163385683506</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>2.311851761397574</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>2.301553544477359</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>2.253673942460392</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>2.255430172382813</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>2.247510684364611</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>2.236202595425143</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>2.240654227222597</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>2.226934744442215</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>2.226644855934964</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>2.208504529137423</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>2.195384740674188</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>2.193397229656747</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>2.192645339286915</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>2.143535538392319</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>2.127283879249752</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>2.110885802450488</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>2.116567284678533</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>2.086141867680402</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>2.085072992888844</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>2.069559251300686</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>2.055627833454536</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>2.028348662374462</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>2.025578751281186</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>2.011461429696321</v>
+      </c>
+      <c r="BE26" t="inlineStr"/>
+      <c r="BF26" t="n">
+        <v>1.983574374668213</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>1.976787437788597</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>1.970219139673688</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>1.927930358979862</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>1.925676284132396</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>1.926104587127734</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>1.924736221487777</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>1.907354184939542</v>
+      </c>
+      <c r="BN26" t="n">
+        <v>1.908061374863117</v>
+      </c>
+      <c r="BO26" t="n">
+        <v>1.904179227103274</v>
+      </c>
+      <c r="BP26" t="n">
+        <v>1.888015981919654</v>
+      </c>
+      <c r="BQ26" t="n">
+        <v>1.884712152208122</v>
+      </c>
+      <c r="BR26" t="n">
+        <v>1.858952225697259</v>
+      </c>
+      <c r="BS26" t="n">
+        <v>1.853772723705853</v>
+      </c>
+      <c r="BT26" t="n">
+        <v>1.847793043550485</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>1.843942542237122</v>
+      </c>
+      <c r="BV26" t="n">
+        <v>1.836919972765973</v>
+      </c>
+      <c r="BW26" t="n">
+        <v>1.831755844882779</v>
+      </c>
+      <c r="BX26" t="n">
+        <v>1.826408178976476</v>
+      </c>
+      <c r="BY26" t="n">
+        <v>1.808939323015283</v>
+      </c>
+      <c r="BZ26" t="n">
+        <v>1.726228798140701</v>
+      </c>
+      <c r="CA26" t="n">
+        <v>1.71867503337331</v>
+      </c>
+      <c r="CB26" t="n">
+        <v>1.721821338755125</v>
+      </c>
+      <c r="CC26" t="n">
+        <v>1.703263624553099</v>
+      </c>
+      <c r="CD26" t="n">
+        <v>1.690698949335047</v>
+      </c>
+      <c r="CE26" t="n">
+        <v>1.689869547449826</v>
+      </c>
+      <c r="CF26" t="n">
+        <v>1.668530922998535</v>
+      </c>
+      <c r="CG26" t="n">
+        <v>1.651657908978557</v>
+      </c>
+      <c r="CH26" t="n">
+        <v>1.650273989697747</v>
       </c>
     </row>
   </sheetData>
